--- a/06_gene_set_expression/funciones_72_48_mf_gsea.xlsx
+++ b/06_gene_set_expression/funciones_72_48_mf_gsea.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="316">
   <si>
     <t>ID</t>
   </si>
@@ -47,27 +47,27 @@
     <t>core_enrichment</t>
   </si>
   <si>
+    <t>GO:0061135</t>
+  </si>
+  <si>
     <t>GO:0003697</t>
   </si>
   <si>
-    <t>GO:0061135</t>
+    <t>GO:0061134</t>
+  </si>
+  <si>
+    <t>GO:0020037</t>
+  </si>
+  <si>
+    <t>GO:0046906</t>
   </si>
   <si>
     <t>GO:0004866</t>
   </si>
   <si>
-    <t>GO:0020037</t>
-  </si>
-  <si>
-    <t>GO:0061134</t>
-  </si>
-  <si>
     <t>GO:0030414</t>
   </si>
   <si>
-    <t>GO:0046906</t>
-  </si>
-  <si>
     <t>GO:0017171</t>
   </si>
   <si>
@@ -77,105 +77,114 @@
     <t>GO:0004252</t>
   </si>
   <si>
+    <t>GO:0004867</t>
+  </si>
+  <si>
     <t>GO:0008094</t>
   </si>
   <si>
-    <t>GO:0005549</t>
-  </si>
-  <si>
     <t>GO:0005344</t>
   </si>
   <si>
     <t>GO:0019825</t>
   </si>
   <si>
+    <t>GO:0003899</t>
+  </si>
+  <si>
+    <t>GO:0061650</t>
+  </si>
+  <si>
+    <t>GO:0005506</t>
+  </si>
+  <si>
+    <t>GO:0034062</t>
+  </si>
+  <si>
+    <t>GO:0097747</t>
+  </si>
+  <si>
     <t>GO:0016712</t>
   </si>
   <si>
-    <t>GO:0003899</t>
-  </si>
-  <si>
-    <t>GO:0005506</t>
-  </si>
-  <si>
-    <t>GO:0004867</t>
-  </si>
-  <si>
-    <t>GO:0004984</t>
+    <t>GO:0008009</t>
+  </si>
+  <si>
+    <t>GO:0042379</t>
+  </si>
+  <si>
+    <t>GO:0008395</t>
   </si>
   <si>
     <t>GO:0030515</t>
   </si>
   <si>
-    <t>GO:0061650</t>
-  </si>
-  <si>
-    <t>GO:0034062</t>
-  </si>
-  <si>
-    <t>GO:0097747</t>
-  </si>
-  <si>
     <t>GO:0004857</t>
   </si>
   <si>
-    <t>GO:0008395</t>
-  </si>
-  <si>
-    <t>GO:0004518</t>
-  </si>
-  <si>
-    <t>GO:0008009</t>
-  </si>
-  <si>
-    <t>GO:0042379</t>
+    <t>GO:0031720</t>
+  </si>
+  <si>
+    <t>GO:0061631</t>
+  </si>
+  <si>
+    <t>GO:0033612</t>
+  </si>
+  <si>
+    <t>GO:0070696</t>
   </si>
   <si>
     <t>GO:0001664</t>
   </si>
   <si>
-    <t>GO:0061631</t>
-  </si>
-  <si>
-    <t>GO:0031720</t>
-  </si>
-  <si>
     <t>GO:0004549</t>
   </si>
   <si>
-    <t>GO:0033612</t>
-  </si>
-  <si>
-    <t>GO:0070696</t>
-  </si>
-  <si>
     <t>GO:0140375</t>
   </si>
   <si>
+    <t>GO:0019203</t>
+  </si>
+  <si>
+    <t>GO:0050308</t>
+  </si>
+  <si>
+    <t>GO:0008173</t>
+  </si>
+  <si>
+    <t>GO:0004879</t>
+  </si>
+  <si>
+    <t>GO:0098531</t>
+  </si>
+  <si>
+    <t>GO:0140104</t>
+  </si>
+  <si>
+    <t>GO:0004601</t>
+  </si>
+  <si>
     <t>GO:0019206</t>
   </si>
   <si>
-    <t>GO:0008173</t>
-  </si>
-  <si>
-    <t>GO:0019203</t>
-  </si>
-  <si>
-    <t>GO:0050308</t>
-  </si>
-  <si>
-    <t>GO:0004879</t>
-  </si>
-  <si>
-    <t>GO:0098531</t>
-  </si>
-  <si>
     <t>GO:0008235</t>
   </si>
   <si>
     <t>GO:0004896</t>
   </si>
   <si>
+    <t>GO:0016893</t>
+  </si>
+  <si>
+    <t>GO:0019955</t>
+  </si>
+  <si>
+    <t>GO:0016891</t>
+  </si>
+  <si>
+    <t>GO:0004181</t>
+  </si>
+  <si>
     <t>GO:0017116</t>
   </si>
   <si>
@@ -188,171 +197,126 @@
     <t>GO:0000030</t>
   </si>
   <si>
-    <t>GO:0016891</t>
-  </si>
-  <si>
-    <t>GO:0140104</t>
-  </si>
-  <si>
-    <t>GO:0004601</t>
+    <t>GO:0004536</t>
+  </si>
+  <si>
+    <t>GO:0005523</t>
+  </si>
+  <si>
+    <t>GO:0048020</t>
+  </si>
+  <si>
+    <t>GO:0051787</t>
+  </si>
+  <si>
+    <t>GO:0005504</t>
+  </si>
+  <si>
+    <t>GO:0033293</t>
+  </si>
+  <si>
+    <t>GO:0004027</t>
+  </si>
+  <si>
+    <t>GO:0017095</t>
+  </si>
+  <si>
+    <t>GO:0051922</t>
+  </si>
+  <si>
+    <t>GO:0016701</t>
+  </si>
+  <si>
+    <t>GO:0004497</t>
+  </si>
+  <si>
+    <t>GO:0016705</t>
+  </si>
+  <si>
+    <t>GO:0008233</t>
   </si>
   <si>
     <t>GO:0047134</t>
   </si>
   <si>
-    <t>GO:0033293</t>
-  </si>
-  <si>
-    <t>GO:0019955</t>
-  </si>
-  <si>
-    <t>GO:0005523</t>
-  </si>
-  <si>
     <t>GO:0000339</t>
   </si>
   <si>
     <t>GO:0017069</t>
   </si>
   <si>
-    <t>GO:0016893</t>
-  </si>
-  <si>
-    <t>GO:0004181</t>
-  </si>
-  <si>
-    <t>GO:0140101</t>
+    <t>GO:0016684</t>
+  </si>
+  <si>
+    <t>GO:0034483</t>
+  </si>
+  <si>
+    <t>GO:0008289</t>
+  </si>
+  <si>
+    <t>GO:0004175</t>
+  </si>
+  <si>
+    <t>GO:0004394</t>
+  </si>
+  <si>
+    <t>GO:0003823</t>
+  </si>
+  <si>
+    <t>GO:0004527</t>
+  </si>
+  <si>
+    <t>GO:0004180</t>
+  </si>
+  <si>
+    <t>GO:0016702</t>
+  </si>
+  <si>
+    <t>GO:0000340</t>
   </si>
   <si>
     <t>GO:0004540</t>
   </si>
   <si>
-    <t>GO:0016705</t>
-  </si>
-  <si>
-    <t>GO:0004497</t>
-  </si>
-  <si>
-    <t>GO:0016684</t>
-  </si>
-  <si>
-    <t>GO:0000340</t>
-  </si>
-  <si>
-    <t>GO:0003678</t>
-  </si>
-  <si>
-    <t>GO:0005504</t>
-  </si>
-  <si>
-    <t>GO:0003823</t>
-  </si>
-  <si>
-    <t>GO:0004386</t>
-  </si>
-  <si>
-    <t>GO:0008233</t>
-  </si>
-  <si>
     <t>GO:0008175</t>
   </si>
   <si>
-    <t>GO:0048020</t>
-  </si>
-  <si>
-    <t>GO:0051787</t>
-  </si>
-  <si>
-    <t>GO:0008289</t>
-  </si>
-  <si>
-    <t>GO:0004536</t>
-  </si>
-  <si>
-    <t>GO:0004180</t>
+    <t>GO:0031492</t>
+  </si>
+  <si>
+    <t>GO:0003950</t>
+  </si>
+  <si>
+    <t>GO:0008146</t>
+  </si>
+  <si>
+    <t>GO:0003779</t>
   </si>
   <si>
     <t>GO:0016782</t>
   </si>
   <si>
-    <t>GO:0004175</t>
-  </si>
-  <si>
-    <t>GO:0008649</t>
-  </si>
-  <si>
-    <t>GO:0140102</t>
-  </si>
-  <si>
-    <t>GO:0034483</t>
-  </si>
-  <si>
-    <t>GO:0004527</t>
-  </si>
-  <si>
-    <t>GO:0004027</t>
-  </si>
-  <si>
-    <t>GO:0017095</t>
-  </si>
-  <si>
-    <t>GO:0051922</t>
-  </si>
-  <si>
-    <t>GO:0004394</t>
-  </si>
-  <si>
-    <t>GO:0004298</t>
-  </si>
-  <si>
-    <t>GO:0016701</t>
-  </si>
-  <si>
-    <t>GO:0016779</t>
-  </si>
-  <si>
-    <t>GO:0031492</t>
-  </si>
-  <si>
-    <t>GO:0051082</t>
-  </si>
-  <si>
-    <t>GO:0008146</t>
-  </si>
-  <si>
-    <t>GO:0003950</t>
-  </si>
-  <si>
-    <t>GO:0016702</t>
-  </si>
-  <si>
-    <t>GO:0008092</t>
-  </si>
-  <si>
-    <t>GO:0004521</t>
+    <t>endopeptidase regulator activity</t>
   </si>
   <si>
     <t>single-stranded DNA binding</t>
   </si>
   <si>
-    <t>endopeptidase regulator activity</t>
+    <t>peptidase regulator activity</t>
+  </si>
+  <si>
+    <t>heme binding</t>
+  </si>
+  <si>
+    <t>tetrapyrrole binding</t>
   </si>
   <si>
     <t>endopeptidase inhibitor activity</t>
   </si>
   <si>
-    <t>heme binding</t>
-  </si>
-  <si>
-    <t>peptidase regulator activity</t>
-  </si>
-  <si>
     <t>peptidase inhibitor activity</t>
   </si>
   <si>
-    <t>tetrapyrrole binding</t>
-  </si>
-  <si>
     <t>serine hydrolase activity</t>
   </si>
   <si>
@@ -362,105 +326,114 @@
     <t>serine-type endopeptidase activity</t>
   </si>
   <si>
+    <t>serine-type endopeptidase inhibitor activity</t>
+  </si>
+  <si>
     <t>ATP-dependent activity, acting on DNA</t>
   </si>
   <si>
-    <t>odorant binding</t>
-  </si>
-  <si>
     <t>oxygen carrier activity</t>
   </si>
   <si>
     <t>oxygen binding</t>
   </si>
   <si>
+    <t>DNA-directed 5'-3' RNA polymerase activity</t>
+  </si>
+  <si>
+    <t>ubiquitin-like protein conjugating enzyme activity</t>
+  </si>
+  <si>
+    <t>iron ion binding</t>
+  </si>
+  <si>
+    <t>5'-3' RNA polymerase activity</t>
+  </si>
+  <si>
+    <t>RNA polymerase activity</t>
+  </si>
+  <si>
     <t>oxidoreductase activity, acting on paired donors, with incorporation or reduction of molecular oxygen, reduced flavin or flavoprotein as one donor, and incorporation of one atom of oxygen</t>
   </si>
   <si>
-    <t>DNA-directed 5'-3' RNA polymerase activity</t>
-  </si>
-  <si>
-    <t>iron ion binding</t>
-  </si>
-  <si>
-    <t>serine-type endopeptidase inhibitor activity</t>
-  </si>
-  <si>
-    <t>olfactory receptor activity</t>
+    <t>chemokine activity</t>
+  </si>
+  <si>
+    <t>chemokine receptor binding</t>
+  </si>
+  <si>
+    <t>steroid hydroxylase activity</t>
   </si>
   <si>
     <t>snoRNA binding</t>
   </si>
   <si>
-    <t>ubiquitin-like protein conjugating enzyme activity</t>
-  </si>
-  <si>
-    <t>5'-3' RNA polymerase activity</t>
-  </si>
-  <si>
-    <t>RNA polymerase activity</t>
-  </si>
-  <si>
     <t>enzyme inhibitor activity</t>
   </si>
   <si>
-    <t>steroid hydroxylase activity</t>
-  </si>
-  <si>
-    <t>nuclease activity</t>
-  </si>
-  <si>
-    <t>chemokine activity</t>
-  </si>
-  <si>
-    <t>chemokine receptor binding</t>
+    <t>haptoglobin binding</t>
+  </si>
+  <si>
+    <t>ubiquitin conjugating enzyme activity</t>
+  </si>
+  <si>
+    <t>receptor serine/threonine kinase binding</t>
+  </si>
+  <si>
+    <t>transmembrane receptor protein serine/threonine kinase binding</t>
   </si>
   <si>
     <t>G protein-coupled receptor binding</t>
   </si>
   <si>
-    <t>ubiquitin conjugating enzyme activity</t>
-  </si>
-  <si>
-    <t>haptoglobin binding</t>
-  </si>
-  <si>
     <t>tRNA-specific ribonuclease activity</t>
   </si>
   <si>
-    <t>receptor serine/threonine kinase binding</t>
-  </si>
-  <si>
-    <t>transmembrane receptor protein serine/threonine kinase binding</t>
-  </si>
-  <si>
     <t>immune receptor activity</t>
   </si>
   <si>
+    <t>carbohydrate phosphatase activity</t>
+  </si>
+  <si>
+    <t>sugar-phosphatase activity</t>
+  </si>
+  <si>
+    <t>RNA methyltransferase activity</t>
+  </si>
+  <si>
+    <t>nuclear receptor activity</t>
+  </si>
+  <si>
+    <t>ligand-activated transcription factor activity</t>
+  </si>
+  <si>
+    <t>molecular carrier activity</t>
+  </si>
+  <si>
+    <t>peroxidase activity</t>
+  </si>
+  <si>
     <t>nucleoside kinase activity</t>
   </si>
   <si>
-    <t>RNA methyltransferase activity</t>
-  </si>
-  <si>
-    <t>carbohydrate phosphatase activity</t>
-  </si>
-  <si>
-    <t>sugar-phosphatase activity</t>
-  </si>
-  <si>
-    <t>nuclear receptor activity</t>
-  </si>
-  <si>
-    <t>ligand-activated transcription factor activity</t>
-  </si>
-  <si>
     <t>metalloexopeptidase activity</t>
   </si>
   <si>
     <t>cytokine receptor activity</t>
   </si>
   <si>
+    <t>endonuclease activity, active with either ribo- or deoxyribonucleic acids and producing 5'-phosphomonoesters</t>
+  </si>
+  <si>
+    <t>cytokine binding</t>
+  </si>
+  <si>
+    <t>endoribonuclease activity, producing 5'-phosphomonoesters</t>
+  </si>
+  <si>
+    <t>metallocarboxypeptidase activity</t>
+  </si>
+  <si>
     <t>single-stranded DNA helicase activity</t>
   </si>
   <si>
@@ -473,162 +446,117 @@
     <t>mannosyltransferase activity</t>
   </si>
   <si>
-    <t>endoribonuclease activity, producing 5'-phosphomonoesters</t>
-  </si>
-  <si>
-    <t>molecular carrier activity</t>
-  </si>
-  <si>
-    <t>peroxidase activity</t>
+    <t>deoxyribonuclease activity</t>
+  </si>
+  <si>
+    <t>tropomyosin binding</t>
+  </si>
+  <si>
+    <t>CCR chemokine receptor binding</t>
+  </si>
+  <si>
+    <t>misfolded protein binding</t>
+  </si>
+  <si>
+    <t>fatty acid binding</t>
+  </si>
+  <si>
+    <t>monocarboxylic acid binding</t>
+  </si>
+  <si>
+    <t>alcohol sulfotransferase activity</t>
+  </si>
+  <si>
+    <t>heparan sulfate 6-O-sulfotransferase activity</t>
+  </si>
+  <si>
+    <t>cholesterol sulfotransferase activity</t>
+  </si>
+  <si>
+    <t>oxidoreductase activity, acting on single donors with incorporation of molecular oxygen</t>
+  </si>
+  <si>
+    <t>monooxygenase activity</t>
+  </si>
+  <si>
+    <t>oxidoreductase activity, acting on paired donors, with incorporation or reduction of molecular oxygen</t>
+  </si>
+  <si>
+    <t>peptidase activity</t>
   </si>
   <si>
     <t>protein-disulfide reductase (NAD(P)) activity</t>
   </si>
   <si>
-    <t>monocarboxylic acid binding</t>
-  </si>
-  <si>
-    <t>cytokine binding</t>
-  </si>
-  <si>
-    <t>tropomyosin binding</t>
-  </si>
-  <si>
     <t>RNA cap binding</t>
   </si>
   <si>
     <t>snRNA binding</t>
   </si>
   <si>
-    <t>endonuclease activity, active with either ribo- or deoxyribonucleic acids and producing 5'-phosphomonoesters</t>
-  </si>
-  <si>
-    <t>metallocarboxypeptidase activity</t>
-  </si>
-  <si>
-    <t>catalytic activity, acting on a tRNA</t>
+    <t>oxidoreductase activity, acting on peroxide as acceptor</t>
+  </si>
+  <si>
+    <t>heparan sulfate sulfotransferase activity</t>
+  </si>
+  <si>
+    <t>lipid binding</t>
+  </si>
+  <si>
+    <t>endopeptidase activity</t>
+  </si>
+  <si>
+    <t>heparan sulfate 2-O-sulfotransferase activity</t>
+  </si>
+  <si>
+    <t>antigen binding</t>
+  </si>
+  <si>
+    <t>exonuclease activity</t>
+  </si>
+  <si>
+    <t>carboxypeptidase activity</t>
+  </si>
+  <si>
+    <t>oxidoreductase activity, acting on single donors with incorporation of molecular oxygen, incorporation of two atoms of oxygen</t>
+  </si>
+  <si>
+    <t>RNA 7-methylguanosine cap binding</t>
   </si>
   <si>
     <t>ribonuclease activity</t>
   </si>
   <si>
-    <t>oxidoreductase activity, acting on paired donors, with incorporation or reduction of molecular oxygen</t>
-  </si>
-  <si>
-    <t>monooxygenase activity</t>
-  </si>
-  <si>
-    <t>oxidoreductase activity, acting on peroxide as acceptor</t>
-  </si>
-  <si>
-    <t>RNA 7-methylguanosine cap binding</t>
-  </si>
-  <si>
-    <t>DNA helicase activity</t>
-  </si>
-  <si>
-    <t>fatty acid binding</t>
-  </si>
-  <si>
-    <t>antigen binding</t>
-  </si>
-  <si>
-    <t>helicase activity</t>
-  </si>
-  <si>
-    <t>peptidase activity</t>
-  </si>
-  <si>
     <t>tRNA methyltransferase activity</t>
   </si>
   <si>
-    <t>CCR chemokine receptor binding</t>
-  </si>
-  <si>
-    <t>misfolded protein binding</t>
-  </si>
-  <si>
-    <t>lipid binding</t>
-  </si>
-  <si>
-    <t>deoxyribonuclease activity</t>
-  </si>
-  <si>
-    <t>carboxypeptidase activity</t>
+    <t>nucleosomal DNA binding</t>
+  </si>
+  <si>
+    <t>NAD+ ADP-ribosyltransferase activity</t>
+  </si>
+  <si>
+    <t>sulfotransferase activity</t>
+  </si>
+  <si>
+    <t>actin binding</t>
   </si>
   <si>
     <t>transferase activity, transferring sulphur-containing groups</t>
   </si>
   <si>
-    <t>endopeptidase activity</t>
-  </si>
-  <si>
-    <t>rRNA methyltransferase activity</t>
-  </si>
-  <si>
-    <t>catalytic activity, acting on a rRNA</t>
-  </si>
-  <si>
-    <t>heparan sulfate sulfotransferase activity</t>
-  </si>
-  <si>
-    <t>exonuclease activity</t>
-  </si>
-  <si>
-    <t>alcohol sulfotransferase activity</t>
-  </si>
-  <si>
-    <t>heparan sulfate 6-O-sulfotransferase activity</t>
-  </si>
-  <si>
-    <t>cholesterol sulfotransferase activity</t>
-  </si>
-  <si>
-    <t>heparan sulfate 2-O-sulfotransferase activity</t>
-  </si>
-  <si>
-    <t>threonine-type endopeptidase activity</t>
-  </si>
-  <si>
-    <t>oxidoreductase activity, acting on single donors with incorporation of molecular oxygen</t>
-  </si>
-  <si>
-    <t>nucleotidyltransferase activity</t>
-  </si>
-  <si>
-    <t>nucleosomal DNA binding</t>
-  </si>
-  <si>
-    <t>unfolded protein binding</t>
-  </si>
-  <si>
-    <t>sulfotransferase activity</t>
-  </si>
-  <si>
-    <t>NAD+ ADP-ribosyltransferase activity</t>
-  </si>
-  <si>
-    <t>oxidoreductase activity, acting on single donors with incorporation of molecular oxygen, incorporation of two atoms of oxygen</t>
-  </si>
-  <si>
-    <t>cytoskeletal protein binding</t>
-  </si>
-  <si>
-    <t>endoribonuclease activity</t>
+    <t>tags=39%, list=10%, signal=35%</t>
   </si>
   <si>
     <t>tags=44%, list=17%, signal=36%</t>
   </si>
   <si>
-    <t>tags=39%, list=10%, signal=35%</t>
+    <t>tags=36%, list=11%, signal=33%</t>
   </si>
   <si>
     <t>tags=40%, list=21%, signal=32%</t>
   </si>
   <si>
-    <t>tags=36%, list=11%, signal=33%</t>
-  </si>
-  <si>
     <t>tags=37%, list=11%, signal=33%</t>
   </si>
   <si>
@@ -638,87 +566,96 @@
     <t>tags=34%, list=15%, signal=29%</t>
   </si>
   <si>
+    <t>tags=41%, list=10%, signal=37%</t>
+  </si>
+  <si>
     <t>tags=36%, list=15%, signal=31%</t>
   </si>
   <si>
-    <t>tags=21%, list=9%, signal=20%</t>
-  </si>
-  <si>
     <t>tags=41%, list=2%, signal=41%</t>
   </si>
   <si>
+    <t>tags=68%, list=17%, signal=56%</t>
+  </si>
+  <si>
+    <t>tags=66%, list=27%, signal=48%</t>
+  </si>
+  <si>
+    <t>tags=35%, list=20%, signal=28%</t>
+  </si>
+  <si>
+    <t>tags=65%, list=17%, signal=54%</t>
+  </si>
+  <si>
     <t>tags=48%, list=20%, signal=38%</t>
   </si>
   <si>
-    <t>tags=68%, list=17%, signal=56%</t>
-  </si>
-  <si>
-    <t>tags=35%, list=20%, signal=28%</t>
-  </si>
-  <si>
-    <t>tags=41%, list=10%, signal=37%</t>
-  </si>
-  <si>
-    <t>tags=20%, list=9%, signal=18%</t>
+    <t>tags=59%, list=19%, signal=48%</t>
+  </si>
+  <si>
+    <t>tags=52%, list=20%, signal=42%</t>
   </si>
   <si>
     <t>tags=78%, list=24%, signal=59%</t>
   </si>
   <si>
-    <t>tags=66%, list=27%, signal=48%</t>
-  </si>
-  <si>
-    <t>tags=65%, list=17%, signal=54%</t>
-  </si>
-  <si>
     <t>tags=34%, list=21%, signal=27%</t>
   </si>
   <si>
-    <t>tags=52%, list=20%, signal=42%</t>
-  </si>
-  <si>
-    <t>tags=32%, list=18%, signal=27%</t>
-  </si>
-  <si>
-    <t>tags=59%, list=19%, signal=48%</t>
+    <t>tags=40%, list=0%, signal=40%</t>
+  </si>
+  <si>
+    <t>tags=68%, list=27%, signal=50%</t>
+  </si>
+  <si>
+    <t>tags=53%, list=13%, signal=46%</t>
   </si>
   <si>
     <t>tags=36%, list=20%, signal=29%</t>
   </si>
   <si>
-    <t>tags=68%, list=27%, signal=50%</t>
-  </si>
-  <si>
-    <t>tags=40%, list=0%, signal=40%</t>
-  </si>
-  <si>
     <t>tags=60%, list=15%, signal=51%</t>
   </si>
   <si>
-    <t>tags=53%, list=13%, signal=46%</t>
-  </si>
-  <si>
     <t>tags=43%, list=21%, signal=34%</t>
   </si>
   <si>
+    <t>tags=38%, list=6%, signal=36%</t>
+  </si>
+  <si>
+    <t>tags=56%, list=28%, signal=41%</t>
+  </si>
+  <si>
+    <t>tags=51%, list=25%, signal=38%</t>
+  </si>
+  <si>
+    <t>tags=10%, list=2%, signal=10%</t>
+  </si>
+  <si>
+    <t>tags=11%, list=0%, signal=11%</t>
+  </si>
+  <si>
     <t>tags=64%, list=17%, signal=53%</t>
   </si>
   <si>
-    <t>tags=56%, list=28%, signal=41%</t>
-  </si>
-  <si>
-    <t>tags=38%, list=6%, signal=36%</t>
-  </si>
-  <si>
-    <t>tags=51%, list=25%, signal=38%</t>
-  </si>
-  <si>
     <t>tags=28%, list=8%, signal=25%</t>
   </si>
   <si>
     <t>tags=41%, list=21%, signal=32%</t>
   </si>
   <si>
+    <t>tags=46%, list=20%, signal=37%</t>
+  </si>
+  <si>
+    <t>tags=40%, list=22%, signal=32%</t>
+  </si>
+  <si>
+    <t>tags=48%, list=18%, signal=39%</t>
+  </si>
+  <si>
+    <t>tags=44%, list=7%, signal=41%</t>
+  </si>
+  <si>
     <t>tags=64%, list=15%, signal=54%</t>
   </si>
   <si>
@@ -731,156 +668,117 @@
     <t>tags=72%, list=24%, signal=55%</t>
   </si>
   <si>
-    <t>tags=48%, list=18%, signal=39%</t>
-  </si>
-  <si>
-    <t>tags=10%, list=2%, signal=10%</t>
-  </si>
-  <si>
-    <t>tags=11%, list=0%, signal=11%</t>
+    <t>tags=42%, list=21%, signal=33%</t>
+  </si>
+  <si>
+    <t>tags=64%, list=12%, signal=56%</t>
+  </si>
+  <si>
+    <t>tags=65%, list=19%, signal=53%</t>
+  </si>
+  <si>
+    <t>tags=35%, list=6%, signal=33%</t>
+  </si>
+  <si>
+    <t>tags=38%, list=13%, signal=33%</t>
+  </si>
+  <si>
+    <t>tags=32%, list=13%, signal=28%</t>
+  </si>
+  <si>
+    <t>tags=42%, list=15%, signal=35%</t>
+  </si>
+  <si>
+    <t>tags=47%, list=24%, signal=36%</t>
+  </si>
+  <si>
+    <t>tags=43%, list=27%, signal=32%</t>
+  </si>
+  <si>
+    <t>tags=39%, list=26%, signal=29%</t>
+  </si>
+  <si>
+    <t>tags=21%, list=16%, signal=18%</t>
   </si>
   <si>
     <t>tags=70%, list=18%, signal=57%</t>
   </si>
   <si>
-    <t>tags=32%, list=13%, signal=28%</t>
-  </si>
-  <si>
-    <t>tags=40%, list=22%, signal=32%</t>
-  </si>
-  <si>
-    <t>tags=64%, list=12%, signal=56%</t>
-  </si>
-  <si>
     <t>tags=50%, list=11%, signal=45%</t>
   </si>
   <si>
     <t>tags=56%, list=20%, signal=45%</t>
   </si>
   <si>
-    <t>tags=46%, list=20%, signal=37%</t>
-  </si>
-  <si>
-    <t>tags=44%, list=7%, signal=41%</t>
-  </si>
-  <si>
-    <t>tags=52%, list=28%, signal=37%</t>
+    <t>tags=10%, list=0%, signal=10%</t>
+  </si>
+  <si>
+    <t>tags=38%, list=15%, signal=33%</t>
+  </si>
+  <si>
+    <t>tags=34%, list=26%, signal=25%</t>
+  </si>
+  <si>
+    <t>tags=22%, list=16%, signal=19%</t>
+  </si>
+  <si>
+    <t>tags=41%, list=15%, signal=34%</t>
+  </si>
+  <si>
+    <t>tags=50%, list=10%, signal=45%</t>
+  </si>
+  <si>
+    <t>tags=20%, list=8%, signal=18%</t>
+  </si>
+  <si>
+    <t>tags=27%, list=7%, signal=25%</t>
+  </si>
+  <si>
+    <t>tags=46%, list=24%, signal=35%</t>
+  </si>
+  <si>
+    <t>tags=50%, list=9%, signal=45%</t>
   </si>
   <si>
     <t>tags=26%, list=9%, signal=23%</t>
   </si>
   <si>
-    <t>tags=39%, list=26%, signal=29%</t>
-  </si>
-  <si>
-    <t>tags=43%, list=27%, signal=32%</t>
-  </si>
-  <si>
-    <t>tags=10%, list=0%, signal=10%</t>
-  </si>
-  <si>
-    <t>tags=50%, list=9%, signal=45%</t>
-  </si>
-  <si>
-    <t>tags=30%, list=15%, signal=26%</t>
-  </si>
-  <si>
-    <t>tags=38%, list=13%, signal=33%</t>
-  </si>
-  <si>
-    <t>tags=50%, list=10%, signal=45%</t>
+    <t>tags=43%, list=16%, signal=36%</t>
+  </si>
+  <si>
+    <t>tags=36%, list=6%, signal=34%</t>
+  </si>
+  <si>
+    <t>tags=71%, list=17%, signal=59%</t>
+  </si>
+  <si>
+    <t>tags=44%, list=31%, signal=31%</t>
   </si>
   <si>
     <t>tags=31%, list=15%, signal=26%</t>
   </si>
   <si>
-    <t>tags=21%, list=16%, signal=18%</t>
-  </si>
-  <si>
-    <t>tags=43%, list=16%, signal=36%</t>
-  </si>
-  <si>
-    <t>tags=65%, list=19%, signal=53%</t>
-  </si>
-  <si>
-    <t>tags=35%, list=6%, signal=33%</t>
-  </si>
-  <si>
-    <t>tags=34%, list=26%, signal=25%</t>
-  </si>
-  <si>
-    <t>tags=42%, list=21%, signal=33%</t>
-  </si>
-  <si>
-    <t>tags=27%, list=7%, signal=25%</t>
-  </si>
-  <si>
-    <t>tags=22%, list=16%, signal=19%</t>
-  </si>
-  <si>
-    <t>tags=86%, list=36%, signal=55%</t>
-  </si>
-  <si>
-    <t>tags=38%, list=15%, signal=33%</t>
-  </si>
-  <si>
-    <t>tags=20%, list=8%, signal=18%</t>
-  </si>
-  <si>
-    <t>tags=42%, list=15%, signal=35%</t>
-  </si>
-  <si>
-    <t>tags=41%, list=15%, signal=34%</t>
-  </si>
-  <si>
-    <t>tags=27%, list=1%, signal=26%</t>
-  </si>
-  <si>
-    <t>tags=47%, list=24%, signal=36%</t>
-  </si>
-  <si>
-    <t>tags=28%, list=16%, signal=23%</t>
-  </si>
-  <si>
-    <t>tags=36%, list=6%, signal=34%</t>
-  </si>
-  <si>
-    <t>tags=19%, list=13%, signal=17%</t>
-  </si>
-  <si>
-    <t>tags=71%, list=17%, signal=59%</t>
-  </si>
-  <si>
-    <t>tags=46%, list=24%, signal=35%</t>
-  </si>
-  <si>
-    <t>tags=41%, list=31%, signal=29%</t>
-  </si>
-  <si>
-    <t>tags=41%, list=18%, signal=34%</t>
+    <t>c3a.2/zgc:174259/serpinf1/col28a2a/ahsg2/c3a.6/spink2.1/serpinc1/a2ml/agt/zgc:174260/serpinh1b/birc7/serpine1/timp4.3/serpina1/spink4/c3a.3/spink2.2/itih2/serpina7/serpind1/kng1/c4b/spink2.5/psme2/serpina1l/si:dkeyp-73b11.8/ahsg1/timp4.2/serpinb1l1/psme1/wu:fb59d01/ambp/c3a.1/serpinf2b/si:ch211-284e20.8/tfpi2</t>
   </si>
   <si>
     <t>mcm3/mcm2/cnbpa/rpa3/mcm4/ssbp1/ssbp3b/rpa2/polr2g/tsn/rpa1/mcm5/mcm6/rad51/twnk/cdc45/samhd1/ercc1/rad51b/mcm7/polr3c/mcm3l/nup35/rad51ap1</t>
   </si>
   <si>
-    <t>c3a.2/zgc:174259/serpinf1/col28a2a/ahsg2/c3a.6/spink2.1/serpinc1/a2ml/agt/zgc:174260/serpinh1b/birc7/serpine1/timp4.3/serpina1/spink4/c3a.3/spink2.2/itih2/serpina7/serpind1/kng1/c4b/spink2.5/psme2/serpina1l/si:dkeyp-73b11.8/ahsg1/timp4.2/serpinb1l1/psme1/wu:fb59d01/ambp/c3a.1/serpinf2b/si:ch211-284e20.8/tfpi2</t>
+    <t>renbp/c3a.2/zgc:174259/serpinf1/col28a2a/ahsg2/c3a.6/spink2.1/serpinc1/a2ml/agt/zgc:174260/serpinh1b/pcolce2b/birc7/serpine1/timp4.3/serpina1/spink4/c3a.3/spink2.2/itih2/serpina7/serpind1/kng1/c4b/spink2.5/psme2/serpina1l/si:dkeyp-73b11.8/ahsg1/timp4.2/serpinb1l1/psme1/wu:fb59d01/ambp/c3a.1/serpinf2b/si:ch211-284e20.8/tfpi2</t>
+  </si>
+  <si>
+    <t>suox/slc48a1a/gucy1b1/cygb1/cyp2aa12/cyp2aa2/cyp2k18/cyp2aa1/cyp3c3/soul4/cyp39a1/cyp3a65/cyp3c4/hmox1a/cyb561d1/cyp1a/cyp2u1/cyp4t8/abcb6a/cyp7a1/hbbe2/cyp2aa8/ido1/cyp2aa4/cyp1c2/cyp2p8/cygb2/cyp46a1.2/cyp1c1/cyp2p7/cyp26a1/cyp2k19/nos1/cyp46a1.4/cyp2x9/cyp2aa9/tdo2a/cyp2p6/mb/cyp2ad2/sdhda/cyp2p9/cyp2ad6/cyp2n13/hbba2/hbaa1/hbba1/si:ch211-5k11.8</t>
+  </si>
+  <si>
+    <t>suox/slc48a1a/gucy1b1/tcn2/cygb1/cyp2aa12/cyp2aa2/cyp2k18/cyp2aa1/cyp3c3/soul4/cyp39a1/cyp3a65/cyp3c4/hmox1a/cyb561d1/cyp1a/cyp2u1/cyp4t8/abcb6a/cyp7a1/hbbe2/cyp2aa8/ido1/cyp2aa4/cyp1c2/cyp2p8/cygb2/cyp46a1.2/cyp1c1/cyp2p7/cyp26a1/tcnba/cyp2k19/nos1/cyp46a1.4/cyp2x9/cyp2aa9/tdo2a/cyp2p6/mb/cyp2ad2/sdhda/cyp2p9/cyp2ad6/cyp2n13/hbba2/hbaa1/hbba1/si:ch211-5k11.8</t>
   </si>
   <si>
     <t>c3a.2/zgc:174259/serpinf1/col28a2a/ahsg2/c3a.6/spink2.1/serpinc1/a2ml/agt/zgc:174260/serpinh1b/birc7/serpine1/timp4.3/serpina1/spink4/c3a.3/spink2.2/itih2/serpina7/serpind1/kng1/c4b/spink2.5/serpina1l/si:dkeyp-73b11.8/ahsg1/timp4.2/serpinb1l1/wu:fb59d01/ambp/c3a.1/serpinf2b/si:ch211-284e20.8/tfpi2</t>
   </si>
   <si>
-    <t>suox/slc48a1a/gucy1b1/cygb1/cyp2aa12/cyp2aa2/cyp2k18/cyp2aa1/cyp3c3/soul4/cyp39a1/cyp3a65/cyp3c4/hmox1a/cyb561d1/cyp1a/cyp2u1/cyp4t8/abcb6a/cyp7a1/hbbe2/cyp2aa8/ido1/cyp2aa4/cyp1c2/cyp2p8/cygb2/cyp46a1.2/cyp1c1/cyp2p7/cyp26a1/cyp2k19/nos1/cyp46a1.4/cyp2x9/cyp2aa9/tdo2a/cyp2p6/mb/cyp2ad2/sdhda/cyp2p9/cyp2ad6/cyp2n13/hbba2/hbaa1/hbba1/si:ch211-5k11.8</t>
-  </si>
-  <si>
-    <t>renbp/c3a.2/zgc:174259/serpinf1/col28a2a/ahsg2/c3a.6/spink2.1/serpinc1/a2ml/agt/zgc:174260/serpinh1b/pcolce2b/birc7/serpine1/timp4.3/serpina1/spink4/c3a.3/spink2.2/itih2/serpina7/serpind1/kng1/c4b/spink2.5/psme2/serpina1l/si:dkeyp-73b11.8/ahsg1/timp4.2/serpinb1l1/psme1/wu:fb59d01/ambp/c3a.1/serpinf2b/si:ch211-284e20.8/tfpi2</t>
-  </si>
-  <si>
     <t>renbp/c3a.2/zgc:174259/serpinf1/col28a2a/ahsg2/c3a.6/spink2.1/serpinc1/a2ml/agt/zgc:174260/serpinh1b/birc7/serpine1/timp4.3/serpina1/spink4/c3a.3/spink2.2/itih2/serpina7/serpind1/kng1/c4b/spink2.5/serpina1l/si:dkeyp-73b11.8/ahsg1/timp4.2/serpinb1l1/wu:fb59d01/ambp/c3a.1/serpinf2b/si:ch211-284e20.8/tfpi2</t>
   </si>
   <si>
-    <t>suox/slc48a1a/gucy1b1/tcn2/cygb1/cyp2aa12/cyp2aa2/cyp2k18/cyp2aa1/cyp3c3/soul4/cyp39a1/cyp3a65/cyp3c4/hmox1a/cyb561d1/cyp1a/cyp2u1/cyp4t8/abcb6a/cyp7a1/hbbe2/cyp2aa8/ido1/cyp2aa4/cyp1c2/cyp2p8/cygb2/cyp46a1.2/cyp1c1/cyp2p7/cyp26a1/tcnba/cyp2k19/nos1/cyp46a1.4/cyp2x9/cyp2aa9/tdo2a/cyp2p6/mb/cyp2ad2/sdhda/cyp2p9/cyp2ad6/cyp2n13/hbba2/hbaa1/hbba1/si:ch211-5k11.8</t>
-  </si>
-  <si>
     <t>nceh1b.1/c1s.2/cfbl/si:dkey-21e2.16/masp2/si:dkey-238d18.3/pcsk2/ctrb.2/rbp3/ela2/mst1/si:dkey-69o16.5/f9b/htra3a/cfd/nceh1a/f7i/ovch1/gzm3/rhbdl1/zgc:171592/gzm3.3/zgc:153968/ela2l/c1s.1/ela3l/f7/plg/cela1.6/cela1.4/f2/f7l/bfb/cfb/ctrl/prss59.1/ctrb.1/ctrb.3/prss1/prss59.2</t>
   </si>
   <si>
@@ -890,81 +788,90 @@
     <t>c1s.2/cfbl/si:dkey-21e2.16/masp2/si:dkey-238d18.3/pcsk2/ctrb.2/ela2/mst1/f9b/htra3a/cfd/f7i/ovch1/gzm3/rhbdl1/zgc:171592/gzm3.3/zgc:153968/ela2l/ela3l/f7/plg/cela1.6/cela1.4/f2/f7l/bfb/cfb/ctrl/prss59.1/ctrb.1/ctrb.3/prss1/prss59.2</t>
   </si>
   <si>
+    <t>zgc:174259/serpinf1/col28a2a/spink2.1/serpinc1/a2ml/agt/zgc:174260/serpinh1b/serpine1/serpina1/spink4/spink2.2/itih2/serpina7/serpind1/spink2.5/serpina1l/si:dkeyp-73b11.8/serpinb1l1/wu:fb59d01/ambp/serpinf2b/tfpi2</t>
+  </si>
+  <si>
     <t>mcm3/mcm2/rbbp4/helz2c/hells/mcm4/rfc5/rfc3/mcm5/pif1/mcm6/rfc2/rad51/twnk/rfc4/smarca5/xrcc3/ercc2/rad51b/mcm7/mcm3l/ruvbl2</t>
   </si>
   <si>
-    <t>or42a7/or70a2/or30bu1/or71as2/or61a1/or62a2/or64e1/or71as1/or70a8/or30bt2/or62b5/or62c1/or62a1/or70b1/or61c1/or42a8/or70a13/or42a6/or42e2/or95a1/or42b1</t>
-  </si>
-  <si>
     <t>hbbe2/cygb2/mb/hbba2/hbaa1/hbba1/si:ch211-5k11.8</t>
   </si>
   <si>
+    <t>polr2g/polr1e/polr1c/polr2c/polr1b/polr2l/polr1h/polr2eb/polr2i/polr3f/polr3h/primpol/polr3c/polr2b/polr2d/polr1f/polr3k</t>
+  </si>
+  <si>
+    <t>ube2d4/ube2ib/cdc34a/ube2d1b/ube2g1a/ube2na/ube2nb/ube2a/ube2g1b/ube2l3b/ube2wa/ube2d2/ufc1/ube2d2l/ube2d1a/ube2t/ube2d3/ube2j2/aktip/ube2g2/ube2q2/ube2wb/ube2l3a/cdc34b/ube2e2</t>
+  </si>
+  <si>
+    <t>cygb1/p4ha1b/cyp2aa12/cyp2aa2/cyp2k18/cyp2aa1/fthl30/cyp3c3/th/cyp39a1/cyp3a65/egln3/cyp3c4/agmo/fth1a/cyp1a/cyp2u1/bbox1/cyp4t8/fth1b/cyp7a1/iscub/cyp2aa8/cyp2aa4/cyp1c2/pah/cyp2p8/cygb2/cyp46a1.2/cyp1c1/zgc:172145/cyp2p7/miox/cyp26a1/cyp2k19/haao/cyp46a1.4/cyp2x9/ch25h/cyp2aa9/cdo1/cyp2p6/scd/cyp2ad2/cyp2p9/cyp2ad6/cyp2n13/hbaa1/si:ch211-5k11.8</t>
+  </si>
+  <si>
     <t>cyp2aa12/cyp2aa2/cyp2k18/cyp2aa1/hmox1a/cyp1a/cyp2u1/cyp2aa8/cyp2aa4/cyp2p8/cyp2p7/cyp2k19/cyp2x9/cyp2aa9/cyp2p6/cyp2ad2/cyp2p9/cyp2ad6/cyp2n13</t>
   </si>
   <si>
-    <t>polr2g/polr1e/polr1c/polr2c/polr1b/polr2l/polr1h/polr2eb/polr2i/polr3f/polr3h/primpol/polr3c/polr2b/polr2d/polr1f/polr3k</t>
-  </si>
-  <si>
-    <t>cygb1/p4ha1b/cyp2aa12/cyp2aa2/cyp2k18/cyp2aa1/fthl30/cyp3c3/th/cyp39a1/cyp3a65/egln3/cyp3c4/agmo/fth1a/cyp1a/cyp2u1/bbox1/cyp4t8/fth1b/cyp7a1/iscub/cyp2aa8/cyp2aa4/cyp1c2/pah/cyp2p8/cygb2/cyp46a1.2/cyp1c1/zgc:172145/cyp2p7/miox/cyp26a1/cyp2k19/haao/cyp46a1.4/cyp2x9/ch25h/cyp2aa9/cdo1/cyp2p6/scd/cyp2ad2/cyp2p9/cyp2ad6/cyp2n13/hbaa1/si:ch211-5k11.8</t>
-  </si>
-  <si>
-    <t>zgc:174259/serpinf1/col28a2a/spink2.1/serpinc1/a2ml/agt/zgc:174260/serpinh1b/serpine1/serpina1/spink4/spink2.2/itih2/serpina7/serpind1/spink2.5/serpina1l/si:dkeyp-73b11.8/serpinb1l1/wu:fb59d01/ambp/serpinf2b/tfpi2</t>
+    <t>ccl35.2/ccl34b.9/ccl34a.3/cxcl8b.3/cxcl19/ccl38.1/ccl27b/ccl39.1/ccl19a.1/cxcl11.6/ccl25b/ccl38a.4/ccl38a.5/cxcl11.1/cxcl18b/cxcl32b.1/cxcl11.8/cxcl20/ccl20b/ccl33.3/ccl34b.4/ccl35.1/ccl36.1</t>
+  </si>
+  <si>
+    <t>cyp2aa12/cyp2aa2/cyp2k18/cyp2aa1/cyp3c3/cyp39a1/cyp3a65/cyp3c4/cyp2u1/cyp7a1/cyp2aa8/cyp2aa4/cyp1c2/cyp2p8/cyp1c1/cyp2p7/cyp2k19/cyp2x9/ch25h/cyp2aa9/cyp2p6/cyp2ad2/cyp2p9/cyp2ad6/cyp2n13</t>
   </si>
   <si>
     <t>nop10/gar1/imp4/rrp9/nop56/nhp2/nop58/wdr3/bysl/tbl3/imp3/bms1/utp6/tsr1</t>
   </si>
   <si>
-    <t>ube2d4/ube2ib/cdc34a/ube2d1b/ube2g1a/ube2na/ube2nb/ube2a/ube2g1b/ube2l3b/ube2wa/ube2d2/ufc1/ube2d2l/ube2d1a/ube2t/ube2d3/ube2j2/aktip/ube2g2/ube2q2/ube2wb/ube2l3a/cdc34b/ube2e2</t>
-  </si>
-  <si>
     <t>sb:cb37/zgc:194981/igf1ra/agrn/serpinb1l2/serpina10a/c3b.1/pkig/si:dkey-7n6.2/anxa1a/serpini1/tesca/lxn/anxa2a/ppp1r37/smcr8b/ensaa/prkar1aa/renbp/ensab/c3a.2/zgc:174259/phactr1/serpinf1/mrtfab/col28a2a/ahsg2/c3a.6/spink2.1/serpinc1/a2ml/agt/phactr3b/zgc:174260/serpinh1b/birc7/apoc1/serpine1/timp4.3/serpina1/spink4/c3a.3/spink2.2/itih2/serpina7/serpind1/kng1/c4b/spink2.5/serpina1l/si:dkeyp-73b11.8/ahsg1/timp4.2/serpinb1l1/anxa2b/wu:fb59d01/ambp/c3a.1/serpinf2b/si:ch211-284e20.8/tfpi2</t>
   </si>
   <si>
-    <t>cyp2aa12/cyp2aa2/cyp2k18/cyp2aa1/cyp3c3/cyp39a1/cyp3a65/cyp3c4/cyp2u1/cyp7a1/cyp2aa8/cyp2aa4/cyp1c2/cyp2p8/cyp1c1/cyp2p7/cyp2k19/cyp2x9/ch25h/cyp2aa9/cyp2p6/cyp2ad2/cyp2p9/cyp2ad6/cyp2n13</t>
-  </si>
-  <si>
-    <t>rag2/piwil2/zgc:110269/plex9.2/pold1/endog/helz2c/dnase1l4.1/smfn/spo11/rpp40/rpp21/rpp14/cnot8/pelo/eri1/fen1/mrpl44/zgc:152968/cpsf3/tsen2/rnasekb/dffb/endouc/pop5/neil3/exosc4/ercc1/neil1/rnaseka/dclre1a/pop7/rnaseh2a/harbi1/elac2/slx1b/elac1/zgc:85936/exo1</t>
-  </si>
-  <si>
-    <t>ccl35.2/ccl34b.9/ccl34a.3/cxcl8b.3/cxcl19/ccl38.1/ccl27b/ccl39.1/ccl19a.1/cxcl11.6/ccl25b/ccl38a.4/ccl38a.5/cxcl11.1/cxcl18b/cxcl32b.1/cxcl11.8/cxcl20/ccl20b/ccl33.3/ccl34b.4/ccl35.1/ccl36.1</t>
+    <t>hbbe2/hbba2/hbaa1/si:ch211-5k11.8</t>
+  </si>
+  <si>
+    <t>ube2d4/cdc34a/ube2d1b/ube2g1a/ube2na/ube2nb/ube2a/ube2g1b/ube2l3b/ube2wa/ube2d2/ube2d2l/ube2d1a/ube2t/ube2d3/ube2j2/aktip/ube2g2/ube2q2/ube2wb/ube2l3a/cdc34b/ube2e2</t>
+  </si>
+  <si>
+    <t>bmp4/tdgf1/bmp7b/bmp5/bmp15/bmp6/gdf9/ndr2</t>
   </si>
   <si>
     <t>homer2/rln1/ccl35.2/wnt10b/spx/ccl34b.9/gna11a/ccl34a.3/wnt16/cxcl8b.3/mrap2a/wnt2/asip1/wnt5a/adma/gnat2/cxcl19/ccl38.1/cnrip1b/nmbb/sagb/calca/wnt9a/ccl27b/rln3b/penka/ccl39.1/ccl19a.1/mrap2b/cxcl11.6/ccl25b/ccl38a.4/gnao1b/ptch1/ccl38a.5/cxcl11.1/ptch2/cxcl18b/rln3a/gnat1/gcgb/grk3/cxcl32b.1/arr3b/pyyb/cxcl11.8/cxcl20/wnt3a/ccl20b/gcga/ccl33.3/ccl34b.4/ccl35.1/ccl36.1/arr3a</t>
   </si>
   <si>
-    <t>ube2d4/cdc34a/ube2d1b/ube2g1a/ube2na/ube2nb/ube2a/ube2g1b/ube2l3b/ube2wa/ube2d2/ube2d2l/ube2d1a/ube2t/ube2d3/ube2j2/aktip/ube2g2/ube2q2/ube2wb/ube2l3a/cdc34b/ube2e2</t>
-  </si>
-  <si>
-    <t>hbbe2/hbba2/hbaa1/si:ch211-5k11.8</t>
-  </si>
-  <si>
     <t>rpp40/rpp21/rpp14/tsen2/pop5/pop7</t>
   </si>
   <si>
-    <t>bmp4/tdgf1/bmp7b/bmp5/bmp15/bmp6/gdf9/ndr2</t>
-  </si>
-  <si>
     <t>ccr6a/il21r.1/il13ra1/il13ra2/il6st/cxcr3.2/il12rb2/cxcr4b/fcer1gl/cmklr1/cxcr3.1/ebi3/il2rga/cd247l/csf3r/crfb15/il2rb/ifngr1l/f3b/mpl/fcer1g/il10ra/ghrb/ccr9a/ackr4b/il15ra/epor/cd74a/cd74b</t>
   </si>
   <si>
+    <t>pfkfb3/fbp1b/g6pc1a.1/g6pc1a.2/fbp2</t>
+  </si>
+  <si>
+    <t>mettl2a/mettl8/trmt11/cmtr2/fbl/mettl14/rnmt/trmt2b/trmt61b/nop2/dimt1l/nsun2/trmt61a/ftsj1/mrm3b/wdr4/trmt5/trmt12/tfb2m/mrm3a/bud23/mettl16/ftsj3/trdmt1/trmt2a/tyw3/emg1</t>
+  </si>
+  <si>
+    <t>rorcb/rxrab/rorca/rxrbb/roraa/nr1h5/ahr1b/esrrgb/thraa/rxrba/esr1/rxrga/nr1i2/nr2e3/vdrb/raraa/esr2b/hnf4g/nr1d4a/nr3c2/nr6a1a/pparg/nr1d4b/nr1d2a/nr4a2b/nr1h4/pparaa/hnf4a/nr4a1/rargb/pparab/nr4a3/nr1d1</t>
+  </si>
+  <si>
+    <t>mb/hbba2/hbaa1/hbba1/si:ch211-5k11.8</t>
+  </si>
+  <si>
     <t>uck2a/tk2/uck2b/zgc:110540/dck/adkb/dguok</t>
   </si>
   <si>
-    <t>mettl2a/mettl8/trmt11/cmtr2/fbl/mettl14/rnmt/trmt2b/trmt61b/nop2/dimt1l/nsun2/trmt61a/ftsj1/mrm3b/wdr4/trmt5/trmt12/tfb2m/mrm3a/bud23/mettl16/ftsj3/trdmt1/trmt2a/tyw3/emg1</t>
-  </si>
-  <si>
-    <t>pfkfb3/fbp1b/g6pc1a.1/g6pc1a.2/fbp2</t>
-  </si>
-  <si>
-    <t>rorcb/rxrab/rorca/rxrbb/roraa/nr1h5/ahr1b/esrrgb/thraa/rxrba/esr1/rxrga/nr1i2/nr2e3/vdrb/raraa/esr2b/hnf4g/nr1d4a/nr3c2/nr6a1a/pparg/nr1d4b/nr1d2a/nr4a2b/nr1h4/pparaa/hnf4a/nr4a1/rargb/pparab/nr4a3/nr1d1</t>
-  </si>
-  <si>
     <t>anpepb.1/aebp1a/enpep/agtpbp1/erap2/erap1b/cpb2/cpa5/cpa1/cpb1/cpa4</t>
   </si>
   <si>
     <t>ccr6a/il21r.1/il13ra1/il13ra2/il6st/cxcr3.2/il12rb2/cxcr4b/cmklr1/cxcr3.1/ebi3/il2rga/csf3r/crfb15/il2rb/ifngr1l/f3b/mpl/il10ra/ghrb/ccr9a/ackr4b/il15ra/epor/cd74a/cd74b</t>
   </si>
   <si>
+    <t>piwil2/zgc:110269/endog/dnase1l4.1/rpp40/rpp21/rpp14/fen1/mrpl44/pop5/pop7/rnaseh2a/elac2/slx1b/elac1/exo1/dnase1l1</t>
+  </si>
+  <si>
+    <t>tgfbr3/ccr6a/itgb1a/il13ra1/itgb1b.1/il13ra2/il6st/cxcr3.2/il12rb2/cxcr4b/cmklr1/cxcr3.1/kita/ebi3/il2rga/csf3r/grem1a/il2rb/cxcl18b/ghrb/ccr9a/ackr4b/csf1ra/cd74a/cd74b</t>
+  </si>
+  <si>
+    <t>piwil2/zgc:110269/rpp40/rpp21/rpp14/fen1/mrpl44/pop5/pop7/rnaseh2a/elac2/elac1</t>
+  </si>
+  <si>
+    <t>aebp1a/agtpbp1/cpb2/cpa5/cpa1/cpb1/cpa4</t>
+  </si>
+  <si>
     <t>mcm3/mcm2/mcm4/mcm5/mcm6/mcm7/mcm3l</t>
   </si>
   <si>
@@ -977,19 +884,37 @@
     <t>sdf2l1/alg3/sdf2/pigm/alg12/pigb/alg2/dpm1/alg9/tmtc4/pomt1/alg11/tmtc2a</t>
   </si>
   <si>
-    <t>piwil2/zgc:110269/rpp40/rpp21/rpp14/fen1/mrpl44/pop5/pop7/rnaseh2a/elac2/elac1</t>
-  </si>
-  <si>
-    <t>mb/hbba2/hbaa1/hbba1/si:ch211-5k11.8</t>
+    <t>rag2/zgc:110269/plex9.2/pold1/endog/dnase1l4.1/spo11/fen1/dffb/dclre1a/slx1b/zgc:85936/exo1/dnase1l1/apex1</t>
+  </si>
+  <si>
+    <t>tmod4/tnnt2e/tnnt1/tnnt2d/tnnt3a/tnnt3b/lmod3</t>
+  </si>
+  <si>
+    <t>ccl35.2/ccl34b.9/ccl34a.3/ccl38.1/ccl39.1/ccl19a.1/ccl25b/ccl38a.4/ccl38a.5/cxcl32b.1/ccl20b/ccl33.3/ccl34b.4/ccl35.1/ccl36.1</t>
+  </si>
+  <si>
+    <t>hspa8b/derl3/dnajb9a/hsp70.2/hsp70.3/clu/hsp70l/hsc70</t>
+  </si>
+  <si>
+    <t>rbp1.2/rbp7a/rbp3/fabp2/fabp1b.1/apoc1/rbp7b/rbp2b/rbp2a/fabp10a</t>
   </si>
   <si>
     <t>rbp7a/rbp3/fabp2/fabp1b.1/apoc1/nr1h4/cyp27c1/rbp7b/rbp2b/rbp2a/fabp10a</t>
   </si>
   <si>
-    <t>tgfbr3/ccr6a/itgb1a/il13ra1/itgb1b.1/il13ra2/il6st/cxcr3.2/il12rb2/cxcr4b/cmklr1/cxcr3.1/kita/ebi3/il2rga/csf3r/grem1a/il2rb/cxcl18b/ghrb/ccr9a/ackr4b/csf1ra/cd74a/cd74b</t>
-  </si>
-  <si>
-    <t>tmod4/tnnt2e/tnnt1/tnnt2d/tnnt3a/tnnt3b/lmod3</t>
+    <t>sult1st5/chst6/sult2st2/sult1st4/sult4a1/sult1st2/chst1/hs6st3b/sult3st2/sult1st7/sult2st3/sult3st5/sult1st6/sult3st3/sult3st4</t>
+  </si>
+  <si>
+    <t>p4ha1a/ptgs1/p4ha1b/hgd/bco2b/rpe65c/ido1/cyp1c2/cyp1c1/miox/bco2l/bco1l/haao/hpdb/tdo2a/cdo1/hpda</t>
+  </si>
+  <si>
+    <t>si:dkey-239i20.4/mical2b/faxdc2/si:dkey-239i20.2/tbxas1/cyp27a1.4/si:dkey-286h2.3/tph2/ywhabl/foxred2/cyp2aa12/mical3a/cyp2aa2/cyp2k18/cyp2aa1/ywhae2/cyp3c3/th/cyp39a1/cyp3a65/cyp3c4/hmox1a/agmo/cyp1a/cyp2u1/cyp4t8/cyp7a1/cyp2aa8/cyp2aa4/cyp1c2/pah/cyp2p8/cyp46a1.2/cyp1c1/cyp2p7/miox/cyp26a1/tyr/cyp2k19/nos1/cyp46a1.4/cyp2x9/ch25h/cyp2aa9/cyp2p6/cyp2ad2/cyp2p9/cyp2ad6/cyp2n13</t>
+  </si>
+  <si>
+    <t>faxdc2/si:dkey-239i20.2/kdm5bb/kdm4c/tbxas1/cyp27a1.4/ogfod2/kdm6bb/p4ha1a/si:dkey-286h2.3/tph2/ptgs1/kdm7aa/p4ha1b/jmjd4/cyp2aa12/mical3a/cyp2aa2/cyp2k18/cyp2aa1/cyp3c3/th/cyp39a1/cyp3a65/phyh/egln3/cyp3c4/hmox1a/agmo/jmjd6/kdm6al/cyp1a/tet3/cyp2u1/bbox1/cyp4t8/cyp7a1/cyp2aa8/cyp2aa4/cyp1c2/pah/cyp2p8/cyp46a1.2/cyp1c1/cyp2p7/cyp26a1/tyr/cyp2k19/nos1/cyp27c1/cyp46a1.4/cyp2x9/ch25h/cyp2aa9/cyp2p6/scd/cyp2ad2/cyp2p9/cyp2ad6/cyp2n13</t>
+  </si>
+  <si>
+    <t>scrn2/xpnpep2/capn1b/c1s.2/ctss2.1/cfbl/adam9/ece2b/usp54a/zgc:136872/si:dkey-21e2.16/masp2/caspbl/eif3hb/asrgl1/si:dkey-238d18.3/nln/pcsk2/ctrb.2/bmp1a/dhh/rbp3/usp47/casp22/ela2/ank2b/mst1/ctsll/si:dkey-69o16.5/f9b/anpepb.1/htra3a/cfd/hmces/zgc:103438/cflara/aebp1a/scrn3/ctsbb/enpep/f7i/senp8/ovch1/agtpbp1/gzm3/rhbdl1/erap2/erap1b/cpb2/casp23/he1.3/bace1/cpa5/zgc:171592/gzm3.3/zgc:153968/ela2l/cpa1/ctss2.2/c1s.1/ela3l/zranb1b/f7/plg/cela1.6/psmb9a/cela1.4/f2/f7l/psmb12/bfb/cfb/psmb13a/ctrl/fgl2a/prss59.1/cpb1/ctrb.1/ctrb.3/cpa4/psmb8a/prss1/prss59.2</t>
   </si>
   <si>
     <t>dcps/eif4ea/eif4e2rs1/eif4e1c/ncbp2/lsm1</t>
@@ -998,100 +923,43 @@
     <t>snrpc/eftud2/prpf4/rbm22/snrpb2/ncbp2/lsm4/rbmx/snrpa/prpf31/sf3b3/larp7/hnrnpub/hexim1</t>
   </si>
   <si>
-    <t>piwil2/zgc:110269/endog/dnase1l4.1/rpp40/rpp21/rpp14/fen1/mrpl44/pop5/pop7/rnaseh2a/elac2/slx1b/elac1/exo1/dnase1l1</t>
-  </si>
-  <si>
-    <t>aebp1a/agtpbp1/cpb2/cpa5/cpa1/cpb1/cpa4</t>
-  </si>
-  <si>
-    <t>mettl2a/qtrt2/mettl8/rpp40/rpp21/rpp14/trmt11/tsen2/pars2/dus1l/wars2/pop5/ptrh2/dtd1/thg1l/qars1/trmt2b/rars1/trmt61b/nsun2/trmt61a/si:dkey-19e4.5/ftsj1/pop7/yars1/pus10/lipia/wdr4/dus4l/trmt5/ptrh1/elac2/elac1/farsa/tyw5/tars1/trit1/trmt12/cars1/ptrhd1/trpt1/farsb/gars1/lrrc47/trdmt1/pop4/qtrt1/qrsl1/vars1/notum2/tyw3</t>
+    <t>gltpd2b/pick1/osbp2b/gper1/snx27a/esyt3/snx19a/sytl4/sh3gl2b/anxa4/svila/snx15/scp2a/soat2/fabp4b/crp2/syt13/rlbp1b/rbp4/stxbp6l/tlr4bb/pacsin1a/apoa4b.1/opn5/esrrb/snx21/arfip2b/snx10b/tlr4al/esrrgb/anxa14/gap43/anxa5b/pctp/flii/esr1/hip1/anxa1a/si:ch211-195b13.1/zfyve26/apoa4b.2/rbp1.2/tex2/pard3ba/zgc:91968/hs1bp3/exorh/zfyve19/nfe2l1a/picalma/acot11b/esr2b/anxa2a/apoea/apoa4a/sptb/syt14b/pla2g4aa/rlbp1a/rbp7a/gcdha/paqr7a/clvs2/cetp/pcyt1bb/acbd5a/osbp/tlr4ba/rbp3/nr3c2/snx22/dysf/plekhf2/apoa1a/fabp2/pcyt1aa/acbd7/mtss1la/syt1a/syt5b/ncf4/itpr3/syt11b/tlr2/vil1/fabp1b.1/apoda.2/apoc1/mttp/paqr7b/cyp27c1/pla2g10/zgc:136908/apoda.1/apoa1b/syt4/vtg2/syt5a/shbg/npc2.2/gc/star/zgc:101699/anxa2b/bin2a/rbp7b/zgc:162608/rbp2b/rbp2a/fabp10a/rho/hamp</t>
+  </si>
+  <si>
+    <t>capn1b/c1s.2/ctss2.1/cfbl/adam9/ece2b/zgc:136872/si:dkey-21e2.16/masp2/caspbl/si:dkey-238d18.3/nln/pcsk2/ctrb.2/bmp1a/usp47/casp22/ela2/ank2b/mst1/ctsll/f9b/htra3a/cfd/zgc:103438/cflara/ctsbb/f7i/ovch1/gzm3/rhbdl1/casp23/he1.3/bace1/zgc:171592/gzm3.3/zgc:153968/ela2l/ctss2.2/ela3l/f7/plg/cela1.6/psmb9a/cela1.4/f2/f7l/psmb12/bfb/cfb/psmb13a/ctrl/prss59.1/ctrb.1/ctrb.3/psmb8a/prss1/prss59.2</t>
+  </si>
+  <si>
+    <t>mfap4.4/mfap4.10/cd40/tapbp.2/dhrs13b.2</t>
+  </si>
+  <si>
+    <t>zgc:110269/plex9.2/pold1/smfn/cnot8/eri1/fen1/zgc:152968/cpsf3</t>
+  </si>
+  <si>
+    <t>p4ha1a/ptgs1/p4ha1b/hgd/bco2b/rpe65c/ido1/cyp1c2/cyp1c1/bco2l/bco1l/haao/hpdb/tdo2a/cdo1/hpda</t>
+  </si>
+  <si>
+    <t>dcps/eif4ea/eif4e2rs1/eif4e1c/ncbp2</t>
   </si>
   <si>
     <t>piwil2/zgc:110269/endog/helz2c/smfn/rpp40/rpp21/rpp14/cnot8/eri1/fen1/mrpl44/cpsf3/tsen2/rnasekb/endouc/pop5</t>
   </si>
   <si>
-    <t>faxdc2/si:dkey-239i20.2/kdm5bb/kdm4c/tbxas1/cyp27a1.4/ogfod2/kdm6bb/p4ha1a/si:dkey-286h2.3/tph2/ptgs1/kdm7aa/p4ha1b/jmjd4/cyp2aa12/mical3a/cyp2aa2/cyp2k18/cyp2aa1/cyp3c3/th/cyp39a1/cyp3a65/phyh/egln3/cyp3c4/hmox1a/agmo/jmjd6/kdm6al/cyp1a/tet3/cyp2u1/bbox1/cyp4t8/cyp7a1/cyp2aa8/cyp2aa4/cyp1c2/pah/cyp2p8/cyp46a1.2/cyp1c1/cyp2p7/cyp26a1/tyr/cyp2k19/nos1/cyp27c1/cyp46a1.4/cyp2x9/ch25h/cyp2aa9/cyp2p6/scd/cyp2ad2/cyp2p9/cyp2ad6/cyp2n13</t>
-  </si>
-  <si>
-    <t>si:dkey-239i20.4/mical2b/faxdc2/si:dkey-239i20.2/tbxas1/cyp27a1.4/si:dkey-286h2.3/tph2/ywhabl/foxred2/cyp2aa12/mical3a/cyp2aa2/cyp2k18/cyp2aa1/ywhae2/cyp3c3/th/cyp39a1/cyp3a65/cyp3c4/hmox1a/agmo/cyp1a/cyp2u1/cyp4t8/cyp7a1/cyp2aa8/cyp2aa4/cyp1c2/pah/cyp2p8/cyp46a1.2/cyp1c1/cyp2p7/miox/cyp26a1/tyr/cyp2k19/nos1/cyp46a1.4/cyp2x9/ch25h/cyp2aa9/cyp2p6/cyp2ad2/cyp2p9/cyp2ad6/cyp2n13</t>
-  </si>
-  <si>
-    <t>dcps/eif4ea/eif4e2rs1/eif4e1c/ncbp2</t>
-  </si>
-  <si>
-    <t>mcm3/mcm2/helz2c/mcm4/mcm5/pif1/mcm6/twnk/ercc2/mcm7/mcm3l/ruvbl2</t>
-  </si>
-  <si>
-    <t>rbp1.2/rbp7a/rbp3/fabp2/fabp1b.1/apoc1/rbp7b/rbp2b/rbp2a/fabp10a</t>
-  </si>
-  <si>
-    <t>mfap4.4/mfap4.10/cd40/tapbp.2/dhrs13b.2</t>
-  </si>
-  <si>
-    <t>ddx4/ddx39aa/mcm3/mcm2/ddx19a/helz2c/hells/mcm4/tdrd9/dhx35/mcm5/pif1/ddx56/mcm6/ddx20/eif4a1a/eif4a3/twnk/ddx19b/ddx49/dhx33/ercc2/ddx18/ddx39ab/mcm7/ddx39b/mcm3l/mtrex/ruvbl2</t>
-  </si>
-  <si>
-    <t>scrn2/xpnpep2/capn1b/c1s.2/ctss2.1/cfbl/adam9/ece2b/usp54a/zgc:136872/si:dkey-21e2.16/masp2/caspbl/eif3hb/asrgl1/si:dkey-238d18.3/nln/pcsk2/ctrb.2/bmp1a/dhh/rbp3/usp47/casp22/ela2/ank2b/mst1/ctsll/si:dkey-69o16.5/f9b/anpepb.1/htra3a/cfd/hmces/zgc:103438/cflara/aebp1a/scrn3/ctsbb/enpep/f7i/senp8/ovch1/agtpbp1/gzm3/rhbdl1/erap2/erap1b/cpb2/casp23/he1.3/bace1/cpa5/zgc:171592/gzm3.3/zgc:153968/ela2l/cpa1/ctss2.2/c1s.1/ela3l/zranb1b/f7/plg/cela1.6/psmb9a/cela1.4/f2/f7l/psmb12/bfb/cfb/psmb13a/ctrl/fgl2a/prss59.1/cpb1/ctrb.1/ctrb.3/cpa4/psmb8a/prss1/prss59.2</t>
-  </si>
-  <si>
     <t>mettl2a/mettl8/trmt11/trmt2b/trmt61b/nsun2/trmt61a/ftsj1/wdr4/trmt5</t>
   </si>
   <si>
-    <t>ccl35.2/ccl34b.9/ccl34a.3/ccl38.1/ccl39.1/ccl19a.1/ccl25b/ccl38a.4/ccl38a.5/cxcl32b.1/ccl20b/ccl33.3/ccl34b.4/ccl35.1/ccl36.1</t>
-  </si>
-  <si>
-    <t>hspa8b/derl3/dnajb9a/hsp70.2/hsp70.3/clu/hsp70l/hsc70</t>
-  </si>
-  <si>
-    <t>gltpd2b/pick1/osbp2b/gper1/snx27a/esyt3/snx19a/sytl4/sh3gl2b/anxa4/svila/snx15/scp2a/soat2/fabp4b/crp2/syt13/rlbp1b/rbp4/stxbp6l/tlr4bb/pacsin1a/apoa4b.1/opn5/esrrb/snx21/arfip2b/snx10b/tlr4al/esrrgb/anxa14/gap43/anxa5b/pctp/flii/esr1/hip1/anxa1a/si:ch211-195b13.1/zfyve26/apoa4b.2/rbp1.2/tex2/pard3ba/zgc:91968/hs1bp3/exorh/zfyve19/nfe2l1a/picalma/acot11b/esr2b/anxa2a/apoea/apoa4a/sptb/syt14b/pla2g4aa/rlbp1a/rbp7a/gcdha/paqr7a/clvs2/cetp/pcyt1bb/acbd5a/osbp/tlr4ba/rbp3/nr3c2/snx22/dysf/plekhf2/apoa1a/fabp2/pcyt1aa/acbd7/mtss1la/syt1a/syt5b/ncf4/itpr3/syt11b/tlr2/vil1/fabp1b.1/apoda.2/apoc1/mttp/paqr7b/cyp27c1/pla2g10/zgc:136908/apoda.1/apoa1b/syt4/vtg2/syt5a/shbg/npc2.2/gc/star/zgc:101699/anxa2b/bin2a/rbp7b/zgc:162608/rbp2b/rbp2a/fabp10a/rho/hamp</t>
-  </si>
-  <si>
-    <t>rag2/zgc:110269/plex9.2/pold1/endog/dnase1l4.1/spo11/fen1/dffb/dclre1a/slx1b/zgc:85936/exo1/dnase1l1/apex1</t>
+    <t>zgc:110425/zgc:153405/si:dkey-23a13.17/si:ch73-368j24.12/si:ch211-103n10.5</t>
+  </si>
+  <si>
+    <t>gig2d/gig2f/tnksb/gig2g/tiparp/art4/gig2e/parp8/parp6a/parp14rs1/gig2p/parp12a/gig2o/si:ch73-252i11.1/gig2h/gig2i/gig2j</t>
+  </si>
+  <si>
+    <t>sult1st5/chst6/tpst2/sult2st2/sult1st4/sult4a1/sult1st2/chst1/hs6st3b/sult3st2/sult1st7/sult2st3/sult3st5/sult1st6/sult3st3/sult3st4</t>
+  </si>
+  <si>
+    <t>pxk/iqgap2/syne3/lcp1/tpm2/myoz1b/actn1/mical3b/antxr2a/myo1g/parvaa/syn1/actr3/ablim3/tpm4b/actn2b/myh7l/evlb/lima1a/myo1cb/myo3a/myom1a/espn/smyhc1/mical2b/vclb/tnnc2.2/wasf2/pick1/shtn1/myo6a/svila/pls3/tmsb5/nav3/cfl2/waslb/tagln2/ncaldb/phactr4b/twf1b/fscn2b/fmnl3/tln1/cald1a/pls1/fhl3b/dbnlb/myh9a/myhz2/myo9aa/mical3a/capgb/smtnl/dmtn/flii/vcla/myo5b/hip1/znf185/eps8a/ctnnal1/wipf2b/ldb3b/wasla/coro6/coro7/diaph3/pdlim4/actn3b/enah/limch1a/inppl1b/eps8l3b/parvg/syne2a/sptb/pstpip1b/pstpip1a/myo1ca/tmod4/ssh2b/xirp1/myo1f/add3b/phactr1/myo9ab/mrtfab/mtss1la/sptan1/pleca/vaspa/actn3a/wasb/add2/phactr3b/ezra/tpm1/vil1/tpma/myh11a/tln2a/actr3b/myhz1.2/wash1/myom2a/triobpb/nrap/msrb2/lmod3/gc/wipf1a/zgc:165653/myhz1.1/myoz2a</t>
   </si>
   <si>
     <t>sult1st5/chst6/tpst2/mocos/sult2st2/sult1st4/sult4a1/sult1st2/chst1/hs6st3b/sult3st2/oxct1b/sult1st7/sult2st3/sult3st5/sult1st6/sult3st3/sult3st4</t>
-  </si>
-  <si>
-    <t>capn1b/c1s.2/ctss2.1/cfbl/adam9/ece2b/zgc:136872/si:dkey-21e2.16/masp2/caspbl/si:dkey-238d18.3/nln/pcsk2/ctrb.2/bmp1a/usp47/casp22/ela2/ank2b/mst1/ctsll/f9b/htra3a/cfd/zgc:103438/cflara/ctsbb/f7i/ovch1/gzm3/rhbdl1/casp23/he1.3/bace1/zgc:171592/gzm3.3/zgc:153968/ela2l/ctss2.2/ela3l/f7/plg/cela1.6/psmb9a/cela1.4/f2/f7l/psmb12/bfb/cfb/psmb13a/ctrl/prss59.1/ctrb.1/ctrb.3/psmb8a/prss1/prss59.2</t>
-  </si>
-  <si>
-    <t>fbl/nop2/dimt1l/tfb2m/bud23/mettl16/ftsj3/emg1/mrm1/fdxacb1/zcchc4/mettl5</t>
-  </si>
-  <si>
-    <t>sult1st5/chst6/sult2st2/sult1st4/sult4a1/sult1st2/chst1/hs6st3b/sult3st2/sult1st7/sult2st3/sult3st5/sult1st6/sult3st3/sult3st4</t>
-  </si>
-  <si>
-    <t>zgc:110269/plex9.2/pold1/smfn/cnot8/eri1/fen1/zgc:152968/cpsf3</t>
-  </si>
-  <si>
-    <t>psmb9a/psmb12/psmb13a/psmb8a</t>
-  </si>
-  <si>
-    <t>p4ha1a/ptgs1/p4ha1b/hgd/bco2b/rpe65c/ido1/cyp1c2/cyp1c1/miox/bco2l/bco1l/haao/hpdb/tdo2a/cdo1/hpda</t>
-  </si>
-  <si>
-    <t>si:ch211-153b23.4/pold1/polr2g/polr1e/polr1c/polr2c/polr1b/polr2l/polr1h/polb/gmppb/polr2eb/polr2i/polr3f/thg1l/pold3/polr3h/primpol/polr3c/polr2b/uap1/polr2d/gmppab/polr1f/ugp2b/tut1</t>
-  </si>
-  <si>
-    <t>zgc:110425/zgc:153405/si:dkey-23a13.17/si:ch73-368j24.12/si:ch211-103n10.5</t>
-  </si>
-  <si>
-    <t>dnajb2/hsp90aa1.2/hspa8b/ssuh2.2/ssuh2.4/dnajb6a/hspb9l/dnajb1b/hsp70.2/dnajb4/hsp70.3/hsp70l/hsc70/hspb6/zgc:122979</t>
-  </si>
-  <si>
-    <t>sult1st5/chst6/tpst2/sult2st2/sult1st4/sult4a1/sult1st2/chst1/hs6st3b/sult3st2/sult1st7/sult2st3/sult3st5/sult1st6/sult3st3/sult3st4</t>
-  </si>
-  <si>
-    <t>gig2d/gig2f/tnksb/gig2g/tiparp/art4/gig2e/parp8/parp6a/parp14rs1/gig2p/parp12a/gig2o/si:ch73-252i11.1/gig2h/gig2i/gig2j</t>
-  </si>
-  <si>
-    <t>p4ha1a/ptgs1/p4ha1b/hgd/bco2b/rpe65c/ido1/cyp1c2/cyp1c1/bco2l/bco1l/haao/hpdb/tdo2a/cdo1/hpda</t>
-  </si>
-  <si>
-    <t>spata6/pxk/rmdn3/iqgap2/syne3/lcp1/tpm2/tmod2/kif2a/myoz1b/actn1/tbcela/tor1l1/stmn4l/gas8/spag9a/mical3b/fblim1/katnal1/antxr2a/rab3ab/myo1g/parvaa/syn1/cript/actr3/ablim3/tpm4b/actn2b/myh7l/evlb/camsap2a/lima1a/myo1cb/arhgef1a/myo3a/myom1a/espn/smyhc1/mical2b/vclb/mapk8ip3/tnnc2.2/wasf2/cgnb/pick1/kif5aa/shtn1/myo6a/tpgs1/svila/clasp1a/pls3/tmsb5/mdm1/nav3/cfl2/waslb/tagln2/ncaldb/phactr4b/twf1b/fscn2b/zgc:103755/fmnl3/ptpn4a/tln1/cald1a/pls1/fhl3b/ktn1/dbnlb/myh9a/tppp2/myhz2/ndel1a/myo9aa/stxbp5a/traf3ip1/ttll1/mical3a/svbp/capgb/rflna/mxc/smtnl/dmtn/flii/vcla/myo5b/hip1/dnm1a/rgs14a/znf185/eps8a/ctnnal1/stmn2a/wipf2b/ldb3b/wasla/rab3c/coro6/coro7/ckap5/dnm3a/klc1a/eml1/diaph3/pdlim4/apc/actn3b/enah/kif1b/dnm2a/ndel1b/limch1a/inppl1b/eps8l3b/appl2/mxb/reep3a/parvg/stmn1b/anxa2a/syne2a/sptb/pstpip1b/pstpip1a/spag6/ccdc88c/myo1ca/tmod4/ssh2b/stmn4/xirp1/myo1f/add3b/mapre2/cenpe/tnnt2e/phactr1/myo9ab/tnnt1/mrtfab/mtss1la/sptan1/pleca/vaspa/actn3a/hook2/wasb/add2/stmn2b/tnnt2d/phactr3b/ezra/tpm1/klc3/mapre3a/vil1/tpma/tor1l3/maco1b/agtpbp1/tppp3/myh11a/tln2a/actr3b/tnnt3a/ccdc88b/csrp1b/myhz1.2/wash1/myom2a/pkd2/triobpb/myl9a/tnnt3b/dctn1a/nrap/msrb2/map1lc3c/mxe/epb41b/lmod3/mxa/gc/wipf1a/zgc:165653/anxa2b/myhz1.1/myoz2a/tcap</t>
-  </si>
-  <si>
-    <t>piwil2/zgc:110269/endog/rpp40/rpp21/rpp14/fen1/mrpl44/cpsf3/tsen2/rnasekb/endouc/pop5/rnaseka/pop7/rnaseh2a/elac2/elac1</t>
   </si>
 </sst>
 </file>
@@ -1186,34 +1054,34 @@
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="D2" t="n">
-        <v>55.0</v>
+        <v>97.0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5197917488012168</v>
+        <v>-0.6233370226908976</v>
       </c>
       <c r="F2" t="n">
-        <v>2.437573083150823</v>
+        <v>-1.8792132894336246</v>
       </c>
       <c r="G2" t="n">
-        <v>2.474727785833898E-8</v>
+        <v>1.0860917224391765E-8</v>
       </c>
       <c r="H2" t="n">
-        <v>5.017510585778228E-6</v>
+        <v>8.743038365635371E-6</v>
       </c>
       <c r="I2" t="n">
-        <v>4.037713755834255E-6</v>
+        <v>7.236800634778934E-6</v>
       </c>
       <c r="J2" t="n">
-        <v>3017.0</v>
+        <v>1821.0</v>
       </c>
       <c r="K2" t="s">
-        <v>201</v>
+        <v>177</v>
       </c>
       <c r="L2" t="s">
-        <v>282</v>
+        <v>248</v>
       </c>
     </row>
     <row r="3">
@@ -1224,34 +1092,34 @@
         <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="D3" t="n">
-        <v>97.0</v>
+        <v>55.0</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.6233370226908976</v>
+        <v>0.5197917488012168</v>
       </c>
       <c r="F3" t="n">
-        <v>-1.8802350242152726</v>
+        <v>2.6243117830091247</v>
       </c>
       <c r="G3" t="n">
-        <v>1.5928552393402738E-8</v>
+        <v>4.7143957505817693E-8</v>
       </c>
       <c r="H3" t="n">
-        <v>5.017510585778228E-6</v>
+        <v>1.1092071134765941E-5</v>
       </c>
       <c r="I3" t="n">
-        <v>4.037713755834255E-6</v>
+        <v>9.181145509391099E-6</v>
       </c>
       <c r="J3" t="n">
-        <v>1821.0</v>
+        <v>3017.0</v>
       </c>
       <c r="K3" t="s">
-        <v>202</v>
+        <v>178</v>
       </c>
       <c r="L3" t="s">
-        <v>283</v>
+        <v>249</v>
       </c>
     </row>
     <row r="4">
@@ -1262,34 +1130,34 @@
         <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="D4" t="n">
-        <v>93.0</v>
+        <v>110.0</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.6161870641307118</v>
+        <v>-0.5943700668033451</v>
       </c>
       <c r="F4" t="n">
-        <v>-1.8629835933845242</v>
+        <v>-1.809834992381484</v>
       </c>
       <c r="G4" t="n">
-        <v>1.2484549666905676E-8</v>
+        <v>5.8670717952376756E-8</v>
       </c>
       <c r="H4" t="n">
-        <v>5.017510585778228E-6</v>
+        <v>1.1092071134765941E-5</v>
       </c>
       <c r="I4" t="n">
-        <v>4.037713755834255E-6</v>
+        <v>9.181145509391099E-6</v>
       </c>
       <c r="J4" t="n">
-        <v>1821.0</v>
+        <v>1897.0</v>
       </c>
       <c r="K4" t="s">
-        <v>202</v>
+        <v>179</v>
       </c>
       <c r="L4" t="s">
-        <v>284</v>
+        <v>250</v>
       </c>
     </row>
     <row r="5">
@@ -1300,7 +1168,7 @@
         <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="D5" t="n">
         <v>119.0</v>
@@ -1309,25 +1177,25 @@
         <v>-0.5888975003008127</v>
       </c>
       <c r="F5" t="n">
-        <v>-1.8032378984634563</v>
+        <v>-1.8068198839408327</v>
       </c>
       <c r="G5" t="n">
-        <v>1.9535252153069627E-8</v>
+        <v>5.317103432408335E-8</v>
       </c>
       <c r="H5" t="n">
-        <v>5.017510585778228E-6</v>
+        <v>1.1092071134765941E-5</v>
       </c>
       <c r="I5" t="n">
-        <v>4.037713755834255E-6</v>
+        <v>9.181145509391099E-6</v>
       </c>
       <c r="J5" t="n">
         <v>3753.0</v>
       </c>
       <c r="K5" t="s">
-        <v>203</v>
+        <v>180</v>
       </c>
       <c r="L5" t="s">
-        <v>285</v>
+        <v>251</v>
       </c>
     </row>
     <row r="6">
@@ -1338,34 +1206,34 @@
         <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="D6" t="n">
-        <v>110.0</v>
+        <v>126.0</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.5943700668033451</v>
+        <v>-0.5736986630030494</v>
       </c>
       <c r="F6" t="n">
-        <v>-1.8114076051276857</v>
+        <v>-1.7675363709666323</v>
       </c>
       <c r="G6" t="n">
-        <v>5.0229467654417965E-8</v>
+        <v>6.889485176873256E-8</v>
       </c>
       <c r="H6" t="n">
-        <v>8.147219653546593E-6</v>
+        <v>1.1092071134765941E-5</v>
       </c>
       <c r="I6" t="n">
-        <v>6.556267356997714E-6</v>
+        <v>9.181145509391099E-6</v>
       </c>
       <c r="J6" t="n">
-        <v>1897.0</v>
+        <v>3753.0</v>
       </c>
       <c r="K6" t="s">
-        <v>204</v>
+        <v>180</v>
       </c>
       <c r="L6" t="s">
-        <v>286</v>
+        <v>252</v>
       </c>
     </row>
     <row r="7">
@@ -1376,34 +1244,34 @@
         <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="D7" t="n">
-        <v>101.0</v>
+        <v>93.0</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.5950300611281574</v>
+        <v>-0.6161870641307118</v>
       </c>
       <c r="F7" t="n">
-        <v>-1.8043574675364278</v>
+        <v>-1.850784306696056</v>
       </c>
       <c r="G7" t="n">
-        <v>1.0338156881588322E-7</v>
+        <v>9.682407951457796E-8</v>
       </c>
       <c r="H7" t="n">
-        <v>1.2418696747934469E-5</v>
+        <v>1.2990564001539208E-5</v>
       </c>
       <c r="I7" t="n">
-        <v>9.993629675799041E-6</v>
+        <v>1.075256883030313E-5</v>
       </c>
       <c r="J7" t="n">
-        <v>1897.0</v>
+        <v>1821.0</v>
       </c>
       <c r="K7" t="s">
-        <v>205</v>
+        <v>177</v>
       </c>
       <c r="L7" t="s">
-        <v>287</v>
+        <v>253</v>
       </c>
     </row>
     <row r="8">
@@ -1414,34 +1282,34 @@
         <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="D8" t="n">
-        <v>126.0</v>
+        <v>101.0</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.5736986630030494</v>
+        <v>-0.5950300611281574</v>
       </c>
       <c r="F8" t="n">
-        <v>-1.7615724045665289</v>
+        <v>-1.7987066521558364</v>
       </c>
       <c r="G8" t="n">
-        <v>1.0718973765171551E-7</v>
+        <v>1.9440844478071437E-7</v>
       </c>
       <c r="H8" t="n">
-        <v>1.2418696747934469E-5</v>
+        <v>2.235697114978215E-5</v>
       </c>
       <c r="I8" t="n">
-        <v>9.993629675799041E-6</v>
+        <v>1.8505345194916122E-5</v>
       </c>
       <c r="J8" t="n">
-        <v>3753.0</v>
+        <v>1897.0</v>
       </c>
       <c r="K8" t="s">
-        <v>203</v>
+        <v>181</v>
       </c>
       <c r="L8" t="s">
-        <v>288</v>
+        <v>254</v>
       </c>
     </row>
     <row r="9">
@@ -1452,7 +1320,7 @@
         <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="D9" t="n">
         <v>115.0</v>
@@ -1461,25 +1329,25 @@
         <v>-0.575743217627567</v>
       </c>
       <c r="F9" t="n">
-        <v>-1.7610884196208887</v>
+        <v>-1.7627495686946555</v>
       </c>
       <c r="G9" t="n">
-        <v>1.9499756128004988E-7</v>
+        <v>3.0045547443792966E-7</v>
       </c>
       <c r="H9" t="n">
-        <v>1.9767877774765056E-5</v>
+        <v>3.0233332115316673E-5</v>
       </c>
       <c r="I9" t="n">
-        <v>1.590769578863565E-5</v>
+        <v>2.5024778331474934E-5</v>
       </c>
       <c r="J9" t="n">
         <v>2725.0</v>
       </c>
       <c r="K9" t="s">
-        <v>206</v>
+        <v>182</v>
       </c>
       <c r="L9" t="s">
-        <v>289</v>
+        <v>255</v>
       </c>
     </row>
     <row r="10">
@@ -1490,7 +1358,7 @@
         <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="D10" t="n">
         <v>113.0</v>
@@ -1499,25 +1367,25 @@
         <v>-0.5701937244850175</v>
       </c>
       <c r="F10" t="n">
-        <v>-1.7427407075445276</v>
+        <v>-1.7433074603832315</v>
       </c>
       <c r="G10" t="n">
-        <v>3.662215024406924E-7</v>
+        <v>9.382716816304939E-7</v>
       </c>
       <c r="H10" t="n">
-        <v>3.300062649771128E-5</v>
+        <v>8.392318930139417E-5</v>
       </c>
       <c r="I10" t="n">
-        <v>2.6556413042482962E-5</v>
+        <v>6.946502625404709E-5</v>
       </c>
       <c r="J10" t="n">
         <v>2717.0</v>
       </c>
       <c r="K10" t="s">
-        <v>207</v>
+        <v>183</v>
       </c>
       <c r="L10" t="s">
-        <v>290</v>
+        <v>256</v>
       </c>
     </row>
     <row r="11">
@@ -1528,7 +1396,7 @@
         <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="D11" t="n">
         <v>101.0</v>
@@ -1537,25 +1405,25 @@
         <v>-0.5714550024566789</v>
       </c>
       <c r="F11" t="n">
-        <v>-1.73286892277141</v>
+        <v>-1.7274419923889757</v>
       </c>
       <c r="G11" t="n">
-        <v>1.150640451701932E-6</v>
+        <v>2.4096708453511168E-6</v>
       </c>
       <c r="H11" t="n">
-        <v>9.331694063302667E-5</v>
+        <v>1.939785030507649E-4</v>
       </c>
       <c r="I11" t="n">
-        <v>7.509442947949451E-5</v>
+        <v>1.6056017316918493E-4</v>
       </c>
       <c r="J11" t="n">
         <v>2717.0</v>
       </c>
       <c r="K11" t="s">
-        <v>206</v>
+        <v>182</v>
       </c>
       <c r="L11" t="s">
-        <v>291</v>
+        <v>257</v>
       </c>
     </row>
     <row r="12">
@@ -1566,34 +1434,34 @@
         <v>21</v>
       </c>
       <c r="C12" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="D12" t="n">
-        <v>61.0</v>
+        <v>58.0</v>
       </c>
       <c r="E12" t="n">
-        <v>0.4316355022177284</v>
+        <v>-0.6324153599979901</v>
       </c>
       <c r="F12" t="n">
-        <v>2.1561913758254634</v>
+        <v>-1.8312477100718563</v>
       </c>
       <c r="G12" t="n">
-        <v>3.6592324476546816E-6</v>
+        <v>4.315949259860595E-6</v>
       </c>
       <c r="H12" t="n">
-        <v>2.508643503201874E-4</v>
+        <v>3.1584901401707086E-4</v>
       </c>
       <c r="I12" t="n">
-        <v>2.0187669180156558E-4</v>
+        <v>2.614350125829433E-4</v>
       </c>
       <c r="J12" t="n">
-        <v>2692.0</v>
+        <v>1739.0</v>
       </c>
       <c r="K12" t="s">
-        <v>208</v>
+        <v>184</v>
       </c>
       <c r="L12" t="s">
-        <v>292</v>
+        <v>258</v>
       </c>
     </row>
     <row r="13">
@@ -1604,34 +1472,34 @@
         <v>22</v>
       </c>
       <c r="C13" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="D13" t="n">
-        <v>98.0</v>
+        <v>61.0</v>
       </c>
       <c r="E13" t="n">
-        <v>0.3535366134032286</v>
+        <v>0.4316355022177284</v>
       </c>
       <c r="F13" t="n">
-        <v>1.873578103129279</v>
+        <v>2.1052884363387565</v>
       </c>
       <c r="G13" t="n">
-        <v>3.7119262686094317E-6</v>
+        <v>5.105772133508773E-6</v>
       </c>
       <c r="H13" t="n">
-        <v>2.508643503201874E-4</v>
+        <v>3.425122139562135E-4</v>
       </c>
       <c r="I13" t="n">
-        <v>2.0187669180156558E-4</v>
+        <v>2.8350471583430293E-4</v>
       </c>
       <c r="J13" t="n">
-        <v>1688.0</v>
+        <v>2692.0</v>
       </c>
       <c r="K13" t="s">
-        <v>209</v>
+        <v>185</v>
       </c>
       <c r="L13" t="s">
-        <v>293</v>
+        <v>259</v>
       </c>
     </row>
     <row r="14">
@@ -1642,7 +1510,7 @@
         <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="D14" t="n">
         <v>17.0</v>
@@ -1651,25 +1519,25 @@
         <v>-0.8091653529191664</v>
       </c>
       <c r="F14" t="n">
-        <v>-2.016145742947099</v>
+        <v>-1.995728858167363</v>
       </c>
       <c r="G14" t="n">
-        <v>6.219544597906791E-6</v>
+        <v>9.77269260646481E-6</v>
       </c>
       <c r="H14" t="n">
-        <v>3.6028933349302916E-4</v>
+        <v>5.619298248717266E-4</v>
       </c>
       <c r="I14" t="n">
-        <v>2.8993365794753465E-4</v>
+        <v>4.6512138495430263E-4</v>
       </c>
       <c r="J14" t="n">
         <v>298.0</v>
       </c>
       <c r="K14" t="s">
-        <v>210</v>
+        <v>186</v>
       </c>
       <c r="L14" t="s">
-        <v>294</v>
+        <v>260</v>
       </c>
     </row>
     <row r="15">
@@ -1680,7 +1548,7 @@
         <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="D15" t="n">
         <v>17.0</v>
@@ -1689,25 +1557,25 @@
         <v>-0.8091653529191664</v>
       </c>
       <c r="F15" t="n">
-        <v>-2.016145742947099</v>
+        <v>-1.995728858167363</v>
       </c>
       <c r="G15" t="n">
-        <v>6.219544597906791E-6</v>
+        <v>9.77269260646481E-6</v>
       </c>
       <c r="H15" t="n">
-        <v>3.6028933349302916E-4</v>
+        <v>5.619298248717266E-4</v>
       </c>
       <c r="I15" t="n">
-        <v>2.8993365794753465E-4</v>
+        <v>4.6512138495430263E-4</v>
       </c>
       <c r="J15" t="n">
         <v>298.0</v>
       </c>
       <c r="K15" t="s">
-        <v>210</v>
+        <v>186</v>
       </c>
       <c r="L15" t="s">
-        <v>294</v>
+        <v>260</v>
       </c>
     </row>
     <row r="16">
@@ -1718,34 +1586,34 @@
         <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="D16" t="n">
-        <v>40.0</v>
+        <v>25.0</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.6778110406089254</v>
+        <v>0.6228491542412223</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.9321284095768871</v>
+        <v>2.3881584300949</v>
       </c>
       <c r="G16" t="n">
-        <v>6.941777322730818E-6</v>
+        <v>1.6485094505914564E-5</v>
       </c>
       <c r="H16" t="n">
-        <v>3.753187605823129E-4</v>
+        <v>7.806177104271308E-4</v>
       </c>
       <c r="I16" t="n">
-        <v>3.020282063223233E-4</v>
+        <v>6.461340447209857E-4</v>
       </c>
       <c r="J16" t="n">
-        <v>3489.0</v>
+        <v>3084.0</v>
       </c>
       <c r="K16" t="s">
-        <v>211</v>
+        <v>187</v>
       </c>
       <c r="L16" t="s">
-        <v>295</v>
+        <v>261</v>
       </c>
     </row>
     <row r="17">
@@ -1756,34 +1624,34 @@
         <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="D17" t="n">
-        <v>25.0</v>
+        <v>38.0</v>
       </c>
       <c r="E17" t="n">
-        <v>0.6228491542412223</v>
+        <v>0.513314657246031</v>
       </c>
       <c r="F17" t="n">
-        <v>2.430101437673804</v>
+        <v>2.1795923457616424</v>
       </c>
       <c r="G17" t="n">
-        <v>8.213919045194923E-6</v>
+        <v>1.611372476606718E-5</v>
       </c>
       <c r="H17" t="n">
-        <v>4.1634302160331767E-4</v>
+        <v>7.806177104271308E-4</v>
       </c>
       <c r="I17" t="n">
-        <v>3.35041434738214E-4</v>
+        <v>6.461340447209857E-4</v>
       </c>
       <c r="J17" t="n">
-        <v>3084.0</v>
+        <v>4749.0</v>
       </c>
       <c r="K17" t="s">
-        <v>212</v>
+        <v>188</v>
       </c>
       <c r="L17" t="s">
-        <v>296</v>
+        <v>262</v>
       </c>
     </row>
     <row r="18">
@@ -1794,7 +1662,7 @@
         <v>27</v>
       </c>
       <c r="C18" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="D18" t="n">
         <v>141.0</v>
@@ -1803,25 +1671,25 @@
         <v>-0.5224241749872008</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.6122653196874381</v>
+        <v>-1.612945254203403</v>
       </c>
       <c r="G18" t="n">
-        <v>9.545989631403786E-6</v>
+        <v>1.556073463009878E-5</v>
       </c>
       <c r="H18" t="n">
-        <v>4.5539985829814533E-4</v>
+        <v>7.806177104271308E-4</v>
       </c>
       <c r="I18" t="n">
-        <v>3.6647142857401536E-4</v>
+        <v>6.461340447209857E-4</v>
       </c>
       <c r="J18" t="n">
         <v>3612.0</v>
       </c>
       <c r="K18" t="s">
-        <v>213</v>
+        <v>189</v>
       </c>
       <c r="L18" t="s">
-        <v>297</v>
+        <v>263</v>
       </c>
     </row>
     <row r="19">
@@ -1832,34 +1700,34 @@
         <v>28</v>
       </c>
       <c r="C19" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="D19" t="n">
-        <v>58.0</v>
+        <v>26.0</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.6324153599979901</v>
+        <v>0.6049297869162623</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.860651835040017</v>
+        <v>2.3395254522367748</v>
       </c>
       <c r="G19" t="n">
-        <v>1.1565925410256446E-5</v>
+        <v>2.2243428682432844E-5</v>
       </c>
       <c r="H19" t="n">
-        <v>5.21109194873221E-4</v>
+        <v>8.1390727678902E-4</v>
       </c>
       <c r="I19" t="n">
-        <v>4.193493423601752E-4</v>
+        <v>6.736885337789469E-4</v>
       </c>
       <c r="J19" t="n">
-        <v>1739.0</v>
+        <v>3084.0</v>
       </c>
       <c r="K19" t="s">
-        <v>214</v>
+        <v>190</v>
       </c>
       <c r="L19" t="s">
-        <v>298</v>
+        <v>261</v>
       </c>
     </row>
     <row r="20">
@@ -1870,34 +1738,34 @@
         <v>29</v>
       </c>
       <c r="C20" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="D20" t="n">
-        <v>107.0</v>
+        <v>26.0</v>
       </c>
       <c r="E20" t="n">
-        <v>0.3271423878955147</v>
+        <v>0.6049297869162623</v>
       </c>
       <c r="F20" t="n">
-        <v>1.8445410169507535</v>
+        <v>2.3395254522367748</v>
       </c>
       <c r="G20" t="n">
-        <v>1.2570989232917833E-5</v>
+        <v>2.2243428682432844E-5</v>
       </c>
       <c r="H20" t="n">
-        <v>5.365827509419138E-4</v>
+        <v>8.1390727678902E-4</v>
       </c>
       <c r="I20" t="n">
-        <v>4.3180129221102816E-4</v>
+        <v>6.736885337789469E-4</v>
       </c>
       <c r="J20" t="n">
-        <v>1688.0</v>
+        <v>3084.0</v>
       </c>
       <c r="K20" t="s">
-        <v>215</v>
+        <v>190</v>
       </c>
       <c r="L20" t="s">
-        <v>293</v>
+        <v>261</v>
       </c>
     </row>
     <row r="21">
@@ -1908,34 +1776,34 @@
         <v>30</v>
       </c>
       <c r="C21" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="D21" t="n">
-        <v>18.0</v>
+        <v>40.0</v>
       </c>
       <c r="E21" t="n">
-        <v>0.6927987752502166</v>
+        <v>-0.6778110406089254</v>
       </c>
       <c r="F21" t="n">
-        <v>2.385777304515774</v>
+        <v>-1.8901031859405026</v>
       </c>
       <c r="G21" t="n">
-        <v>1.853011060802235E-5</v>
+        <v>2.1921099073295448E-5</v>
       </c>
       <c r="H21" t="n">
-        <v>7.513959851553062E-4</v>
+        <v>8.1390727678902E-4</v>
       </c>
       <c r="I21" t="n">
-        <v>6.046667672091504E-4</v>
+        <v>6.736885337789469E-4</v>
       </c>
       <c r="J21" t="n">
-        <v>4230.0</v>
+        <v>3489.0</v>
       </c>
       <c r="K21" t="s">
-        <v>216</v>
+        <v>191</v>
       </c>
       <c r="L21" t="s">
-        <v>299</v>
+        <v>264</v>
       </c>
     </row>
     <row r="22">
@@ -1946,34 +1814,34 @@
         <v>31</v>
       </c>
       <c r="C22" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="D22" t="n">
-        <v>38.0</v>
+        <v>39.0</v>
       </c>
       <c r="E22" t="n">
-        <v>0.513314657246031</v>
+        <v>-0.6644744080391051</v>
       </c>
       <c r="F22" t="n">
-        <v>2.244070622572026</v>
+        <v>-1.8485530663234113</v>
       </c>
       <c r="G22" t="n">
-        <v>1.9496382156553884E-5</v>
+        <v>2.1672486868491312E-5</v>
       </c>
       <c r="H22" t="n">
-        <v>7.529317109031048E-4</v>
+        <v>8.1390727678902E-4</v>
       </c>
       <c r="I22" t="n">
-        <v>6.059026033615743E-4</v>
+        <v>6.736885337789469E-4</v>
       </c>
       <c r="J22" t="n">
-        <v>4749.0</v>
+        <v>3462.0</v>
       </c>
       <c r="K22" t="s">
-        <v>217</v>
+        <v>192</v>
       </c>
       <c r="L22" t="s">
-        <v>300</v>
+        <v>265</v>
       </c>
     </row>
     <row r="23">
@@ -1984,34 +1852,34 @@
         <v>32</v>
       </c>
       <c r="C23" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="D23" t="n">
-        <v>26.0</v>
+        <v>39.0</v>
       </c>
       <c r="E23" t="n">
-        <v>0.6049297869162623</v>
+        <v>-0.6644744080391051</v>
       </c>
       <c r="F23" t="n">
-        <v>2.370470419717282</v>
+        <v>-1.8485530663234113</v>
       </c>
       <c r="G23" t="n">
-        <v>3.523385038887455E-5</v>
+        <v>2.1672486868491312E-5</v>
       </c>
       <c r="H23" t="n">
-        <v>0.0012423762028424897</v>
+        <v>8.1390727678902E-4</v>
       </c>
       <c r="I23" t="n">
-        <v>9.997705831168067E-4</v>
+        <v>6.736885337789469E-4</v>
       </c>
       <c r="J23" t="n">
-        <v>3084.0</v>
+        <v>3462.0</v>
       </c>
       <c r="K23" t="s">
-        <v>218</v>
+        <v>192</v>
       </c>
       <c r="L23" t="s">
-        <v>296</v>
+        <v>265</v>
       </c>
     </row>
     <row r="24">
@@ -2022,34 +1890,34 @@
         <v>33</v>
       </c>
       <c r="C24" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="D24" t="n">
-        <v>26.0</v>
+        <v>48.0</v>
       </c>
       <c r="E24" t="n">
-        <v>0.6049297869162623</v>
+        <v>-0.637939396897859</v>
       </c>
       <c r="F24" t="n">
-        <v>2.370470419717282</v>
+        <v>-1.7984273984040033</v>
       </c>
       <c r="G24" t="n">
-        <v>3.523385038887455E-5</v>
+        <v>2.4733311592786565E-5</v>
       </c>
       <c r="H24" t="n">
-        <v>0.0012423762028424897</v>
+        <v>8.656659057475298E-4</v>
       </c>
       <c r="I24" t="n">
-        <v>9.997705831168067E-4</v>
+        <v>7.165302626194002E-4</v>
       </c>
       <c r="J24" t="n">
-        <v>3084.0</v>
+        <v>3489.0</v>
       </c>
       <c r="K24" t="s">
-        <v>218</v>
+        <v>193</v>
       </c>
       <c r="L24" t="s">
-        <v>296</v>
+        <v>266</v>
       </c>
     </row>
     <row r="25">
@@ -2060,34 +1928,34 @@
         <v>34</v>
       </c>
       <c r="C25" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="D25" t="n">
-        <v>179.0</v>
+        <v>18.0</v>
       </c>
       <c r="E25" t="n">
-        <v>-0.48056366083817853</v>
+        <v>0.6927987752502166</v>
       </c>
       <c r="F25" t="n">
-        <v>-1.4953904757101664</v>
+        <v>2.414593137238929</v>
       </c>
       <c r="G25" t="n">
-        <v>4.013019097504224E-5</v>
+        <v>3.813443403096135E-5</v>
       </c>
       <c r="H25" t="n">
-        <v>0.0013560660366983023</v>
+        <v>0.001279092474788495</v>
       </c>
       <c r="I25" t="n">
-        <v>0.0010912595791458858</v>
+        <v>0.001058732313228006</v>
       </c>
       <c r="J25" t="n">
-        <v>3798.0</v>
+        <v>4230.0</v>
       </c>
       <c r="K25" t="s">
-        <v>219</v>
+        <v>194</v>
       </c>
       <c r="L25" t="s">
-        <v>301</v>
+        <v>267</v>
       </c>
     </row>
     <row r="26">
@@ -2098,34 +1966,34 @@
         <v>35</v>
       </c>
       <c r="C26" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="D26" t="n">
-        <v>48.0</v>
+        <v>179.0</v>
       </c>
       <c r="E26" t="n">
-        <v>-0.637939396897859</v>
+        <v>-0.48056366083817853</v>
       </c>
       <c r="F26" t="n">
-        <v>-1.8478699404464094</v>
+        <v>-1.4983046499209445</v>
       </c>
       <c r="G26" t="n">
-        <v>4.5004597113087793E-5</v>
+        <v>8.97707884907156E-5</v>
       </c>
       <c r="H26" t="n">
-        <v>0.001459949130348568</v>
+        <v>0.0028906193894010423</v>
       </c>
       <c r="I26" t="n">
-        <v>0.001174856850952187</v>
+        <v>0.0023926277521946517</v>
       </c>
       <c r="J26" t="n">
-        <v>3489.0</v>
+        <v>3798.0</v>
       </c>
       <c r="K26" t="s">
-        <v>220</v>
+        <v>195</v>
       </c>
       <c r="L26" t="s">
-        <v>302</v>
+        <v>268</v>
       </c>
     </row>
     <row r="27">
@@ -2136,34 +2004,34 @@
         <v>36</v>
       </c>
       <c r="C27" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="D27" t="n">
-        <v>120.0</v>
+        <v>10.0</v>
       </c>
       <c r="E27" t="n">
-        <v>0.2932375057858079</v>
+        <v>-0.8640146019167091</v>
       </c>
       <c r="F27" t="n">
-        <v>1.6780199113336463</v>
+        <v>-1.9219181203214732</v>
       </c>
       <c r="G27" t="n">
-        <v>4.794090942748987E-5</v>
+        <v>9.891285168102661E-5</v>
       </c>
       <c r="H27" t="n">
-        <v>0.0014953875979113187</v>
+        <v>0.0030624940616625546</v>
       </c>
       <c r="I27" t="n">
-        <v>0.0012033750544552114</v>
+        <v>0.0025348921098821806</v>
       </c>
       <c r="J27" t="n">
-        <v>3256.0</v>
+        <v>8.0</v>
       </c>
       <c r="K27" t="s">
-        <v>221</v>
+        <v>196</v>
       </c>
       <c r="L27" t="s">
-        <v>303</v>
+        <v>269</v>
       </c>
     </row>
     <row r="28">
@@ -2174,34 +2042,34 @@
         <v>37</v>
       </c>
       <c r="C28" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="D28" t="n">
-        <v>39.0</v>
+        <v>34.0</v>
       </c>
       <c r="E28" t="n">
-        <v>-0.6644744080391051</v>
+        <v>0.5083448220778406</v>
       </c>
       <c r="F28" t="n">
-        <v>-1.8814375815361981</v>
+        <v>2.174761035092683</v>
       </c>
       <c r="G28" t="n">
-        <v>5.2802739870493526E-5</v>
+        <v>1.1526422375570137E-4</v>
       </c>
       <c r="H28" t="n">
-        <v>0.0015293936441060803</v>
+        <v>0.003436581486049615</v>
       </c>
       <c r="I28" t="n">
-        <v>0.0012307405533724055</v>
+        <v>0.0028445323055500574</v>
       </c>
       <c r="J28" t="n">
-        <v>3462.0</v>
+        <v>4749.0</v>
       </c>
       <c r="K28" t="s">
-        <v>222</v>
+        <v>197</v>
       </c>
       <c r="L28" t="s">
-        <v>304</v>
+        <v>270</v>
       </c>
     </row>
     <row r="29">
@@ -2212,34 +2080,34 @@
         <v>38</v>
       </c>
       <c r="C29" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="D29" t="n">
-        <v>39.0</v>
+        <v>15.0</v>
       </c>
       <c r="E29" t="n">
-        <v>-0.6644744080391051</v>
+        <v>0.699059222317634</v>
       </c>
       <c r="F29" t="n">
-        <v>-1.8814375815361981</v>
+        <v>2.256111404107306</v>
       </c>
       <c r="G29" t="n">
-        <v>5.2802739870493526E-5</v>
+        <v>1.2781192032967315E-4</v>
       </c>
       <c r="H29" t="n">
-        <v>0.0015293936441060803</v>
+        <v>0.0035478826160478235</v>
       </c>
       <c r="I29" t="n">
-        <v>0.0012307405533724055</v>
+        <v>0.00293665864133151</v>
       </c>
       <c r="J29" t="n">
-        <v>3462.0</v>
+        <v>2407.0</v>
       </c>
       <c r="K29" t="s">
-        <v>222</v>
+        <v>198</v>
       </c>
       <c r="L29" t="s">
-        <v>304</v>
+        <v>271</v>
       </c>
     </row>
     <row r="30">
@@ -2250,34 +2118,34 @@
         <v>39</v>
       </c>
       <c r="C30" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="D30" t="n">
-        <v>154.0</v>
+        <v>15.0</v>
       </c>
       <c r="E30" t="n">
-        <v>-0.4967698141516472</v>
+        <v>0.699059222317634</v>
       </c>
       <c r="F30" t="n">
-        <v>-1.540170160217918</v>
+        <v>2.256111404107306</v>
       </c>
       <c r="G30" t="n">
-        <v>7.847902499677362E-5</v>
+        <v>1.2781192032967315E-4</v>
       </c>
       <c r="H30" t="n">
-        <v>0.0021947065266339104</v>
+        <v>0.0035478826160478235</v>
       </c>
       <c r="I30" t="n">
-        <v>0.0017661341378584266</v>
+        <v>0.00293665864133151</v>
       </c>
       <c r="J30" t="n">
-        <v>3561.0</v>
+        <v>2407.0</v>
       </c>
       <c r="K30" t="s">
-        <v>223</v>
+        <v>198</v>
       </c>
       <c r="L30" t="s">
-        <v>305</v>
+        <v>271</v>
       </c>
     </row>
     <row r="31">
@@ -2288,34 +2156,34 @@
         <v>40</v>
       </c>
       <c r="C31" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="D31" t="n">
-        <v>34.0</v>
+        <v>154.0</v>
       </c>
       <c r="E31" t="n">
-        <v>0.5083448220778406</v>
+        <v>-0.4967698141516472</v>
       </c>
       <c r="F31" t="n">
-        <v>2.1991182979860664</v>
+        <v>-1.544334272440475</v>
       </c>
       <c r="G31" t="n">
-        <v>9.087568911628477E-5</v>
+        <v>1.418466302835065E-4</v>
       </c>
       <c r="H31" t="n">
-        <v>0.002377425286235708</v>
+        <v>0.0038062179126074243</v>
       </c>
       <c r="I31" t="n">
-        <v>0.0019131724024481008</v>
+        <v>0.0031504883147178814</v>
       </c>
       <c r="J31" t="n">
-        <v>4749.0</v>
+        <v>3561.0</v>
       </c>
       <c r="K31" t="s">
-        <v>224</v>
+        <v>199</v>
       </c>
       <c r="L31" t="s">
-        <v>306</v>
+        <v>272</v>
       </c>
     </row>
     <row r="32">
@@ -2326,34 +2194,34 @@
         <v>41</v>
       </c>
       <c r="C32" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="D32" t="n">
         <v>10.0</v>
       </c>
       <c r="E32" t="n">
-        <v>-0.8640146019167091</v>
+        <v>0.7722464466927028</v>
       </c>
       <c r="F32" t="n">
-        <v>-1.8973401114400248</v>
+        <v>2.272379403726865</v>
       </c>
       <c r="G32" t="n">
-        <v>8.982258037454563E-5</v>
+        <v>2.797338106145113E-4</v>
       </c>
       <c r="H32" t="n">
-        <v>0.002377425286235708</v>
+        <v>0.0070370536732712995</v>
       </c>
       <c r="I32" t="n">
-        <v>0.0019131724024481008</v>
+        <v>0.005824720464440317</v>
       </c>
       <c r="J32" t="n">
-        <v>8.0</v>
+        <v>2668.0</v>
       </c>
       <c r="K32" t="s">
-        <v>225</v>
+        <v>200</v>
       </c>
       <c r="L32" t="s">
-        <v>307</v>
+        <v>273</v>
       </c>
     </row>
     <row r="33">
@@ -2364,34 +2232,34 @@
         <v>42</v>
       </c>
       <c r="C33" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="D33" t="n">
-        <v>10.0</v>
+        <v>68.0</v>
       </c>
       <c r="E33" t="n">
-        <v>0.7722464466927028</v>
+        <v>-0.5588108069283626</v>
       </c>
       <c r="F33" t="n">
-        <v>2.1901426072210444</v>
+        <v>-1.6415693556373854</v>
       </c>
       <c r="G33" t="n">
-        <v>1.4930341805727027E-4</v>
+        <v>2.722944419883852E-4</v>
       </c>
       <c r="H33" t="n">
-        <v>0.0037839085013889433</v>
+        <v>0.0070370536732712995</v>
       </c>
       <c r="I33" t="n">
-        <v>0.0030450039209048542</v>
+        <v>0.005824720464440317</v>
       </c>
       <c r="J33" t="n">
-        <v>2668.0</v>
+        <v>3751.0</v>
       </c>
       <c r="K33" t="s">
-        <v>226</v>
+        <v>201</v>
       </c>
       <c r="L33" t="s">
-        <v>308</v>
+        <v>274</v>
       </c>
     </row>
     <row r="34">
@@ -2402,34 +2270,34 @@
         <v>43</v>
       </c>
       <c r="C34" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="D34" t="n">
-        <v>15.0</v>
+        <v>13.0</v>
       </c>
       <c r="E34" t="n">
-        <v>0.699059222317634</v>
+        <v>-0.7812850216270635</v>
       </c>
       <c r="F34" t="n">
-        <v>2.27917582734092</v>
+        <v>-1.835352804777952</v>
       </c>
       <c r="G34" t="n">
-        <v>2.3435124972872546E-4</v>
+        <v>3.5067262510321795E-4</v>
       </c>
       <c r="H34" t="n">
-        <v>0.005571549539783013</v>
+        <v>0.008302690094355601</v>
       </c>
       <c r="I34" t="n">
-        <v>0.004483562482530299</v>
+        <v>0.0068723149130135285</v>
       </c>
       <c r="J34" t="n">
-        <v>2407.0</v>
+        <v>1111.0</v>
       </c>
       <c r="K34" t="s">
-        <v>227</v>
+        <v>202</v>
       </c>
       <c r="L34" t="s">
-        <v>309</v>
+        <v>275</v>
       </c>
     </row>
     <row r="35">
@@ -2440,34 +2308,34 @@
         <v>44</v>
       </c>
       <c r="C35" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="D35" t="n">
-        <v>15.0</v>
+        <v>13.0</v>
       </c>
       <c r="E35" t="n">
-        <v>0.699059222317634</v>
+        <v>-0.7812850216270635</v>
       </c>
       <c r="F35" t="n">
-        <v>2.27917582734092</v>
+        <v>-1.835352804777952</v>
       </c>
       <c r="G35" t="n">
-        <v>2.3435124972872546E-4</v>
+        <v>3.5067262510321795E-4</v>
       </c>
       <c r="H35" t="n">
-        <v>0.005571549539783013</v>
+        <v>0.008302690094355601</v>
       </c>
       <c r="I35" t="n">
-        <v>0.004483562482530299</v>
+        <v>0.0068723149130135285</v>
       </c>
       <c r="J35" t="n">
-        <v>2407.0</v>
+        <v>1111.0</v>
       </c>
       <c r="K35" t="s">
-        <v>227</v>
+        <v>202</v>
       </c>
       <c r="L35" t="s">
-        <v>309</v>
+        <v>275</v>
       </c>
     </row>
     <row r="36">
@@ -2478,34 +2346,34 @@
         <v>45</v>
       </c>
       <c r="C36" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="D36" t="n">
-        <v>68.0</v>
+        <v>48.0</v>
       </c>
       <c r="E36" t="n">
-        <v>-0.5588108069283626</v>
+        <v>0.401312623414065</v>
       </c>
       <c r="F36" t="n">
-        <v>-1.660678455430585</v>
+        <v>1.8952260696031855</v>
       </c>
       <c r="G36" t="n">
-        <v>2.4044911700666515E-4</v>
+        <v>3.7766501174954E-4</v>
       </c>
       <c r="H36" t="n">
-        <v>0.005571549539783013</v>
+        <v>0.00868629527023942</v>
       </c>
       <c r="I36" t="n">
-        <v>0.004483562482530299</v>
+        <v>0.007189833156013799</v>
       </c>
       <c r="J36" t="n">
-        <v>3751.0</v>
+        <v>5011.0</v>
       </c>
       <c r="K36" t="s">
-        <v>228</v>
+        <v>203</v>
       </c>
       <c r="L36" t="s">
-        <v>310</v>
+        <v>276</v>
       </c>
     </row>
     <row r="37">
@@ -2516,34 +2384,34 @@
         <v>46</v>
       </c>
       <c r="C37" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="D37" t="n">
-        <v>11.0</v>
+        <v>65.0</v>
       </c>
       <c r="E37" t="n">
-        <v>0.7374814354830678</v>
+        <v>-0.5543170250768897</v>
       </c>
       <c r="F37" t="n">
-        <v>2.126092062489806</v>
+        <v>-1.623497337025348</v>
       </c>
       <c r="G37" t="n">
-        <v>4.492214315158799E-4</v>
+        <v>4.6874073588519993E-4</v>
       </c>
       <c r="H37" t="n">
-        <v>0.008885819047789723</v>
+        <v>0.010198278172637458</v>
       </c>
       <c r="I37" t="n">
-        <v>0.00715063639383429</v>
+        <v>0.008441333878103316</v>
       </c>
       <c r="J37" t="n">
-        <v>2955.0</v>
+        <v>4536.0</v>
       </c>
       <c r="K37" t="s">
-        <v>229</v>
+        <v>204</v>
       </c>
       <c r="L37" t="s">
-        <v>311</v>
+        <v>277</v>
       </c>
     </row>
     <row r="38">
@@ -2554,34 +2422,34 @@
         <v>47</v>
       </c>
       <c r="C38" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="D38" t="n">
-        <v>48.0</v>
+        <v>65.0</v>
       </c>
       <c r="E38" t="n">
-        <v>0.401312623414065</v>
+        <v>-0.5543170250768897</v>
       </c>
       <c r="F38" t="n">
-        <v>1.8829085047943024</v>
+        <v>-1.623497337025348</v>
       </c>
       <c r="G38" t="n">
-        <v>4.31191298759473E-4</v>
+        <v>4.6874073588519993E-4</v>
       </c>
       <c r="H38" t="n">
-        <v>0.008885819047789723</v>
+        <v>0.010198278172637458</v>
       </c>
       <c r="I38" t="n">
-        <v>0.00715063639383429</v>
+        <v>0.008441333878103316</v>
       </c>
       <c r="J38" t="n">
-        <v>5011.0</v>
+        <v>4536.0</v>
       </c>
       <c r="K38" t="s">
-        <v>230</v>
+        <v>204</v>
       </c>
       <c r="L38" t="s">
-        <v>312</v>
+        <v>277</v>
       </c>
     </row>
     <row r="39">
@@ -2592,34 +2460,34 @@
         <v>48</v>
       </c>
       <c r="C39" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="D39" t="n">
-        <v>13.0</v>
+        <v>48.0</v>
       </c>
       <c r="E39" t="n">
-        <v>-0.7812850216270635</v>
+        <v>-0.5921915519622208</v>
       </c>
       <c r="F39" t="n">
-        <v>-1.8454707243570265</v>
+        <v>-1.6694587563193972</v>
       </c>
       <c r="G39" t="n">
-        <v>4.1908720387660094E-4</v>
+        <v>5.616047938376016E-4</v>
       </c>
       <c r="H39" t="n">
-        <v>0.008885819047789723</v>
+        <v>0.01189715418524393</v>
       </c>
       <c r="I39" t="n">
-        <v>0.00715063639383429</v>
+        <v>0.009847530041529138</v>
       </c>
       <c r="J39" t="n">
-        <v>1111.0</v>
+        <v>298.0</v>
       </c>
       <c r="K39" t="s">
-        <v>231</v>
+        <v>205</v>
       </c>
       <c r="L39" t="s">
-        <v>313</v>
+        <v>278</v>
       </c>
     </row>
     <row r="40">
@@ -2630,34 +2498,34 @@
         <v>49</v>
       </c>
       <c r="C40" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="D40" t="n">
-        <v>13.0</v>
+        <v>36.0</v>
       </c>
       <c r="E40" t="n">
-        <v>-0.7812850216270635</v>
+        <v>-0.6168232768592753</v>
       </c>
       <c r="F40" t="n">
-        <v>-1.8454707243570265</v>
+        <v>-1.6909685114306556</v>
       </c>
       <c r="G40" t="n">
-        <v>4.1908720387660094E-4</v>
+        <v>6.709522343701622E-4</v>
       </c>
       <c r="H40" t="n">
-        <v>0.008885819047789723</v>
+        <v>0.013849142273537965</v>
       </c>
       <c r="I40" t="n">
-        <v>0.00715063639383429</v>
+        <v>0.011463232506243258</v>
       </c>
       <c r="J40" t="n">
-        <v>1111.0</v>
+        <v>8.0</v>
       </c>
       <c r="K40" t="s">
-        <v>231</v>
+        <v>206</v>
       </c>
       <c r="L40" t="s">
-        <v>313</v>
+        <v>269</v>
       </c>
     </row>
     <row r="41">
@@ -2668,34 +2536,34 @@
         <v>50</v>
       </c>
       <c r="C41" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="D41" t="n">
-        <v>65.0</v>
+        <v>11.0</v>
       </c>
       <c r="E41" t="n">
-        <v>-0.5543170250768897</v>
+        <v>0.7374814354830678</v>
       </c>
       <c r="F41" t="n">
-        <v>-1.638620891522342</v>
+        <v>2.1814017179235194</v>
       </c>
       <c r="G41" t="n">
-        <v>4.47709401572832E-4</v>
+        <v>8.207798501359579E-4</v>
       </c>
       <c r="H41" t="n">
-        <v>0.008885819047789723</v>
+        <v>0.016518194483986153</v>
       </c>
       <c r="I41" t="n">
-        <v>0.00715063639383429</v>
+        <v>0.013672464345685826</v>
       </c>
       <c r="J41" t="n">
-        <v>4536.0</v>
+        <v>2955.0</v>
       </c>
       <c r="K41" t="s">
-        <v>232</v>
+        <v>207</v>
       </c>
       <c r="L41" t="s">
-        <v>314</v>
+        <v>279</v>
       </c>
     </row>
     <row r="42">
@@ -2706,34 +2574,34 @@
         <v>51</v>
       </c>
       <c r="C42" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="D42" t="n">
-        <v>65.0</v>
+        <v>40.0</v>
       </c>
       <c r="E42" t="n">
-        <v>-0.5543170250768897</v>
+        <v>-0.6127428402627892</v>
       </c>
       <c r="F42" t="n">
-        <v>-1.638620891522342</v>
+        <v>-1.7086579078182103</v>
       </c>
       <c r="G42" t="n">
-        <v>4.47709401572832E-4</v>
+        <v>0.0010571128176616053</v>
       </c>
       <c r="H42" t="n">
-        <v>0.008885819047789723</v>
+        <v>0.02075550776140469</v>
       </c>
       <c r="I42" t="n">
-        <v>0.00715063639383429</v>
+        <v>0.017179779552754716</v>
       </c>
       <c r="J42" t="n">
-        <v>4536.0</v>
+        <v>1486.0</v>
       </c>
       <c r="K42" t="s">
-        <v>232</v>
+        <v>208</v>
       </c>
       <c r="L42" t="s">
-        <v>314</v>
+        <v>280</v>
       </c>
     </row>
     <row r="43">
@@ -2744,34 +2612,34 @@
         <v>52</v>
       </c>
       <c r="C43" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="D43" t="n">
-        <v>40.0</v>
+        <v>64.0</v>
       </c>
       <c r="E43" t="n">
-        <v>-0.6127428402627892</v>
+        <v>-0.5477824615309203</v>
       </c>
       <c r="F43" t="n">
-        <v>-1.7466488128800453</v>
+        <v>-1.604053158736926</v>
       </c>
       <c r="G43" t="n">
-        <v>5.888198466684065E-4</v>
+        <v>0.0013296598151992115</v>
       </c>
       <c r="H43" t="n">
-        <v>0.011369830848763755</v>
+        <v>0.02548514645798489</v>
       </c>
       <c r="I43" t="n">
-        <v>0.009149581577303561</v>
+        <v>0.021094603083235613</v>
       </c>
       <c r="J43" t="n">
-        <v>1486.0</v>
+        <v>3751.0</v>
       </c>
       <c r="K43" t="s">
-        <v>233</v>
+        <v>209</v>
       </c>
       <c r="L43" t="s">
-        <v>315</v>
+        <v>281</v>
       </c>
     </row>
     <row r="44">
@@ -2782,34 +2650,34 @@
         <v>53</v>
       </c>
       <c r="C44" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="D44" t="n">
-        <v>64.0</v>
+        <v>37.0</v>
       </c>
       <c r="E44" t="n">
-        <v>-0.5477824615309203</v>
+        <v>0.42540269744664994</v>
       </c>
       <c r="F44" t="n">
-        <v>-1.6141196443660943</v>
+        <v>1.8098550728932385</v>
       </c>
       <c r="G44" t="n">
-        <v>8.648176520141458E-4</v>
+        <v>0.0014479159433986386</v>
       </c>
       <c r="H44" t="n">
-        <v>0.01631086315775517</v>
+        <v>0.027106333358974513</v>
       </c>
       <c r="I44" t="n">
-        <v>0.01312575138919879</v>
+        <v>0.022436494300399956</v>
       </c>
       <c r="J44" t="n">
-        <v>3751.0</v>
+        <v>3499.0</v>
       </c>
       <c r="K44" t="s">
-        <v>234</v>
+        <v>210</v>
       </c>
       <c r="L44" t="s">
-        <v>316</v>
+        <v>282</v>
       </c>
     </row>
     <row r="45">
@@ -2820,34 +2688,34 @@
         <v>54</v>
       </c>
       <c r="C45" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="D45" t="n">
-        <v>11.0</v>
+        <v>62.0</v>
       </c>
       <c r="E45" t="n">
-        <v>0.7133619640939316</v>
+        <v>-0.5455021365944733</v>
       </c>
       <c r="F45" t="n">
-        <v>2.0565578149757617</v>
+        <v>-1.5895060280351938</v>
       </c>
       <c r="G45" t="n">
-        <v>9.91686476432778E-4</v>
+        <v>0.0015040192147021713</v>
       </c>
       <c r="H45" t="n">
-        <v>0.017704050290114116</v>
+        <v>0.027516715178073817</v>
       </c>
       <c r="I45" t="n">
-        <v>0.014246883223922062</v>
+        <v>0.022776176146087908</v>
       </c>
       <c r="J45" t="n">
-        <v>2622.0</v>
+        <v>3878.0</v>
       </c>
       <c r="K45" t="s">
-        <v>235</v>
+        <v>211</v>
       </c>
       <c r="L45" t="s">
-        <v>317</v>
+        <v>283</v>
       </c>
     </row>
     <row r="46">
@@ -2858,34 +2726,34 @@
         <v>55</v>
       </c>
       <c r="C46" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="D46" t="n">
-        <v>10.0</v>
+        <v>25.0</v>
       </c>
       <c r="E46" t="n">
-        <v>0.7136411352804504</v>
+        <v>0.49200009872503325</v>
       </c>
       <c r="F46" t="n">
-        <v>2.023934021758291</v>
+        <v>1.886450636364928</v>
       </c>
       <c r="G46" t="n">
-        <v>0.001068543136800131</v>
+        <v>0.0016228454494008637</v>
       </c>
       <c r="H46" t="n">
-        <v>0.017704050290114116</v>
+        <v>0.028575308635904375</v>
       </c>
       <c r="I46" t="n">
-        <v>0.014246883223922062</v>
+        <v>0.023652396687188586</v>
       </c>
       <c r="J46" t="n">
-        <v>2502.0</v>
+        <v>3180.0</v>
       </c>
       <c r="K46" t="s">
-        <v>236</v>
+        <v>212</v>
       </c>
       <c r="L46" t="s">
-        <v>318</v>
+        <v>284</v>
       </c>
     </row>
     <row r="47">
@@ -2896,34 +2764,34 @@
         <v>56</v>
       </c>
       <c r="C47" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="D47" t="n">
-        <v>12.0</v>
+        <v>16.0</v>
       </c>
       <c r="E47" t="n">
-        <v>0.6818820079389981</v>
+        <v>-0.7193554911602096</v>
       </c>
       <c r="F47" t="n">
-        <v>2.023620064326054</v>
+        <v>-1.7535568723273067</v>
       </c>
       <c r="G47" t="n">
-        <v>9.902443204485884E-4</v>
+        <v>0.0016328747791945358</v>
       </c>
       <c r="H47" t="n">
-        <v>0.017704050290114116</v>
+        <v>0.028575308635904375</v>
       </c>
       <c r="I47" t="n">
-        <v>0.014246883223922062</v>
+        <v>0.023652396687188586</v>
       </c>
       <c r="J47" t="n">
-        <v>3295.0</v>
+        <v>1270.0</v>
       </c>
       <c r="K47" t="s">
-        <v>237</v>
+        <v>213</v>
       </c>
       <c r="L47" t="s">
-        <v>319</v>
+        <v>285</v>
       </c>
     </row>
     <row r="48">
@@ -2934,34 +2802,34 @@
         <v>57</v>
       </c>
       <c r="C48" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="D48" t="n">
-        <v>18.0</v>
+        <v>11.0</v>
       </c>
       <c r="E48" t="n">
-        <v>0.5819679213357036</v>
+        <v>0.7133619640939316</v>
       </c>
       <c r="F48" t="n">
-        <v>2.004111306601951</v>
+        <v>2.1100585575506687</v>
       </c>
       <c r="G48" t="n">
-        <v>0.0010480359260246692</v>
+        <v>0.0018710944982907106</v>
       </c>
       <c r="H48" t="n">
-        <v>0.017704050290114116</v>
+        <v>0.029103612952229307</v>
       </c>
       <c r="I48" t="n">
-        <v>0.014246883223922062</v>
+        <v>0.024089685516523244</v>
       </c>
       <c r="J48" t="n">
-        <v>4204.0</v>
+        <v>2622.0</v>
       </c>
       <c r="K48" t="s">
-        <v>238</v>
+        <v>214</v>
       </c>
       <c r="L48" t="s">
-        <v>320</v>
+        <v>286</v>
       </c>
     </row>
     <row r="49">
@@ -2972,34 +2840,34 @@
         <v>58</v>
       </c>
       <c r="C49" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="D49" t="n">
-        <v>25.0</v>
+        <v>10.0</v>
       </c>
       <c r="E49" t="n">
-        <v>0.49200009872503325</v>
+        <v>0.7136411352804504</v>
       </c>
       <c r="F49" t="n">
-        <v>1.919582195955444</v>
+        <v>2.0999299179797397</v>
       </c>
       <c r="G49" t="n">
-        <v>0.0010696651839896321</v>
+        <v>0.00218784329285149</v>
       </c>
       <c r="H49" t="n">
-        <v>0.017704050290114116</v>
+        <v>0.029103612952229307</v>
       </c>
       <c r="I49" t="n">
-        <v>0.014246883223922062</v>
+        <v>0.024089685516523244</v>
       </c>
       <c r="J49" t="n">
-        <v>3180.0</v>
+        <v>2502.0</v>
       </c>
       <c r="K49" t="s">
-        <v>239</v>
+        <v>215</v>
       </c>
       <c r="L49" t="s">
-        <v>321</v>
+        <v>287</v>
       </c>
     </row>
     <row r="50">
@@ -3010,34 +2878,34 @@
         <v>59</v>
       </c>
       <c r="C50" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="D50" t="n">
-        <v>48.0</v>
+        <v>12.0</v>
       </c>
       <c r="E50" t="n">
-        <v>-0.5921915519622208</v>
+        <v>0.6818820079389981</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.715355679831926</v>
+        <v>2.0709896502503367</v>
       </c>
       <c r="G50" t="n">
-        <v>0.0010515781955796075</v>
+        <v>0.0019432858948386213</v>
       </c>
       <c r="H50" t="n">
-        <v>0.017704050290114116</v>
+        <v>0.029103612952229307</v>
       </c>
       <c r="I50" t="n">
-        <v>0.014246883223922062</v>
+        <v>0.024089685516523244</v>
       </c>
       <c r="J50" t="n">
-        <v>298.0</v>
+        <v>3295.0</v>
       </c>
       <c r="K50" t="s">
-        <v>240</v>
+        <v>216</v>
       </c>
       <c r="L50" t="s">
-        <v>322</v>
+        <v>288</v>
       </c>
     </row>
     <row r="51">
@@ -3048,34 +2916,34 @@
         <v>60</v>
       </c>
       <c r="C51" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="D51" t="n">
-        <v>36.0</v>
+        <v>18.0</v>
       </c>
       <c r="E51" t="n">
-        <v>-0.6168232768592753</v>
+        <v>0.5819679213357036</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.7353890596046777</v>
+        <v>2.0283173111021684</v>
       </c>
       <c r="G51" t="n">
-        <v>0.001126742029881851</v>
+        <v>0.0022474543340551983</v>
       </c>
       <c r="H51" t="n">
-        <v>0.01827575572468362</v>
+        <v>0.029103612952229307</v>
       </c>
       <c r="I51" t="n">
-        <v>0.014706948600563109</v>
+        <v>0.024089685516523244</v>
       </c>
       <c r="J51" t="n">
-        <v>8.0</v>
+        <v>4204.0</v>
       </c>
       <c r="K51" t="s">
-        <v>241</v>
+        <v>217</v>
       </c>
       <c r="L51" t="s">
-        <v>307</v>
+        <v>289</v>
       </c>
     </row>
     <row r="52">
@@ -3086,34 +2954,34 @@
         <v>61</v>
       </c>
       <c r="C52" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="D52" t="n">
-        <v>10.0</v>
+        <v>36.0</v>
       </c>
       <c r="E52" t="n">
-        <v>0.7104529943932223</v>
+        <v>0.4221542255927798</v>
       </c>
       <c r="F52" t="n">
-        <v>2.0148922408283227</v>
+        <v>1.820229743837929</v>
       </c>
       <c r="G52" t="n">
-        <v>0.0011762929659176694</v>
+        <v>0.0017365564731993894</v>
       </c>
       <c r="H52" t="n">
-        <v>0.018705364614886862</v>
+        <v>0.029103612952229307</v>
       </c>
       <c r="I52" t="n">
-        <v>0.015052665404931992</v>
+        <v>0.024089685516523244</v>
       </c>
       <c r="J52" t="n">
-        <v>3295.0</v>
+        <v>3721.0</v>
       </c>
       <c r="K52" t="s">
-        <v>242</v>
+        <v>218</v>
       </c>
       <c r="L52" t="s">
-        <v>319</v>
+        <v>290</v>
       </c>
     </row>
     <row r="53">
@@ -3124,34 +2992,34 @@
         <v>62</v>
       </c>
       <c r="C53" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="D53" t="n">
-        <v>34.0</v>
+        <v>11.0</v>
       </c>
       <c r="E53" t="n">
-        <v>-0.6037513744843583</v>
+        <v>-0.7755663431280916</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.680167658378797</v>
+        <v>-1.7552328302075237</v>
       </c>
       <c r="G53" t="n">
-        <v>0.0011995496572201607</v>
+        <v>0.0020023860359921044</v>
       </c>
       <c r="H53" t="n">
-        <v>0.018708361000106737</v>
+        <v>0.029103612952229307</v>
       </c>
       <c r="I53" t="n">
-        <v>0.015055076669564772</v>
+        <v>0.024089685516523244</v>
       </c>
       <c r="J53" t="n">
-        <v>2332.0</v>
+        <v>2063.0</v>
       </c>
       <c r="K53" t="s">
-        <v>243</v>
+        <v>219</v>
       </c>
       <c r="L53" t="s">
-        <v>323</v>
+        <v>291</v>
       </c>
     </row>
     <row r="54">
@@ -3162,34 +3030,34 @@
         <v>63</v>
       </c>
       <c r="C54" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="D54" t="n">
-        <v>62.0</v>
+        <v>23.0</v>
       </c>
       <c r="E54" t="n">
-        <v>-0.5455021365944733</v>
+        <v>-0.6644828502093175</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.6107077224659578</v>
+        <v>-1.7286663127187452</v>
       </c>
       <c r="G54" t="n">
-        <v>0.0012391643502198237</v>
+        <v>0.002194239499669433</v>
       </c>
       <c r="H54" t="n">
-        <v>0.018961552604307114</v>
+        <v>0.029103612952229307</v>
       </c>
       <c r="I54" t="n">
-        <v>0.015258826159608553</v>
+        <v>0.024089685516523244</v>
       </c>
       <c r="J54" t="n">
-        <v>3878.0</v>
+        <v>3462.0</v>
       </c>
       <c r="K54" t="s">
-        <v>244</v>
+        <v>220</v>
       </c>
       <c r="L54" t="s">
-        <v>324</v>
+        <v>292</v>
       </c>
     </row>
     <row r="55">
@@ -3200,34 +3068,34 @@
         <v>64</v>
       </c>
       <c r="C55" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="D55" t="n">
-        <v>11.0</v>
+        <v>23.0</v>
       </c>
       <c r="E55" t="n">
-        <v>-0.7755663431280916</v>
+        <v>-0.6639307446239565</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.751507526268381</v>
+        <v>-1.727229998258294</v>
       </c>
       <c r="G55" t="n">
-        <v>0.0013724558005596315</v>
+        <v>0.002276264799621292</v>
       </c>
       <c r="H55" t="n">
-        <v>0.020612252856552986</v>
+        <v>0.029103612952229307</v>
       </c>
       <c r="I55" t="n">
-        <v>0.016587185113976055</v>
+        <v>0.024089685516523244</v>
       </c>
       <c r="J55" t="n">
-        <v>2063.0</v>
+        <v>986.0</v>
       </c>
       <c r="K55" t="s">
-        <v>245</v>
+        <v>221</v>
       </c>
       <c r="L55" t="s">
-        <v>325</v>
+        <v>293</v>
       </c>
     </row>
     <row r="56">
@@ -3238,34 +3106,34 @@
         <v>65</v>
       </c>
       <c r="C56" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="D56" t="n">
-        <v>12.0</v>
+        <v>26.0</v>
       </c>
       <c r="E56" t="n">
-        <v>0.6698426253962186</v>
+        <v>-0.6533998654717285</v>
       </c>
       <c r="F56" t="n">
-        <v>1.987890809422697</v>
+        <v>-1.7200422749444502</v>
       </c>
       <c r="G56" t="n">
-        <v>0.0015169127289802724</v>
+        <v>0.0020890794118829286</v>
       </c>
       <c r="H56" t="n">
-        <v>0.021662795319065647</v>
+        <v>0.029103612952229307</v>
       </c>
       <c r="I56" t="n">
-        <v>0.017432582384088135</v>
+        <v>0.024089685516523244</v>
       </c>
       <c r="J56" t="n">
-        <v>1895.0</v>
+        <v>2332.0</v>
       </c>
       <c r="K56" t="s">
-        <v>246</v>
+        <v>222</v>
       </c>
       <c r="L56" t="s">
-        <v>326</v>
+        <v>294</v>
       </c>
     </row>
     <row r="57">
@@ -3276,34 +3144,34 @@
         <v>66</v>
       </c>
       <c r="C57" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="D57" t="n">
-        <v>25.0</v>
+        <v>34.0</v>
       </c>
       <c r="E57" t="n">
-        <v>0.4763508630369046</v>
+        <v>-0.6037513744843583</v>
       </c>
       <c r="F57" t="n">
-        <v>1.8585253094119498</v>
+        <v>-1.6453949293886596</v>
       </c>
       <c r="G57" t="n">
-        <v>0.0015533295837864985</v>
+        <v>0.0020929643433379532</v>
       </c>
       <c r="H57" t="n">
-        <v>0.021662795319065647</v>
+        <v>0.029103612952229307</v>
       </c>
       <c r="I57" t="n">
-        <v>0.017432582384088135</v>
+        <v>0.024089685516523244</v>
       </c>
       <c r="J57" t="n">
-        <v>3618.0</v>
+        <v>2332.0</v>
       </c>
       <c r="K57" t="s">
-        <v>247</v>
+        <v>223</v>
       </c>
       <c r="L57" t="s">
-        <v>327</v>
+        <v>295</v>
       </c>
     </row>
     <row r="58">
@@ -3314,34 +3182,34 @@
         <v>67</v>
       </c>
       <c r="C58" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="D58" t="n">
-        <v>37.0</v>
+        <v>36.0</v>
       </c>
       <c r="E58" t="n">
-        <v>0.42540269744664994</v>
+        <v>-0.5935654072813434</v>
       </c>
       <c r="F58" t="n">
-        <v>1.8285186790043528</v>
+        <v>-1.6272090416202833</v>
       </c>
       <c r="G58" t="n">
-        <v>0.0015665519261471694</v>
+        <v>0.0021564451726462947</v>
       </c>
       <c r="H58" t="n">
-        <v>0.021662795319065647</v>
+        <v>0.029103612952229307</v>
       </c>
       <c r="I58" t="n">
-        <v>0.017432582384088135</v>
+        <v>0.024089685516523244</v>
       </c>
       <c r="J58" t="n">
-        <v>3499.0</v>
+        <v>2730.0</v>
       </c>
       <c r="K58" t="s">
-        <v>248</v>
+        <v>224</v>
       </c>
       <c r="L58" t="s">
-        <v>328</v>
+        <v>296</v>
       </c>
     </row>
     <row r="59">
@@ -3352,34 +3220,34 @@
         <v>68</v>
       </c>
       <c r="C59" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="D59" t="n">
-        <v>16.0</v>
+        <v>36.0</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.7193554911602096</v>
+        <v>-0.5935654072813434</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.771940393989564</v>
+        <v>-1.6272090416202833</v>
       </c>
       <c r="G59" t="n">
-        <v>0.00157596168165829</v>
+        <v>0.0021564451726462947</v>
       </c>
       <c r="H59" t="n">
-        <v>0.021662795319065647</v>
+        <v>0.029103612952229307</v>
       </c>
       <c r="I59" t="n">
-        <v>0.017432582384088135</v>
+        <v>0.024089685516523244</v>
       </c>
       <c r="J59" t="n">
-        <v>1270.0</v>
+        <v>2730.0</v>
       </c>
       <c r="K59" t="s">
-        <v>249</v>
+        <v>224</v>
       </c>
       <c r="L59" t="s">
-        <v>329</v>
+        <v>296</v>
       </c>
     </row>
     <row r="60">
@@ -3390,34 +3258,34 @@
         <v>69</v>
       </c>
       <c r="C60" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="D60" t="n">
-        <v>99.0</v>
+        <v>36.0</v>
       </c>
       <c r="E60" t="n">
-        <v>0.2671799735764294</v>
+        <v>-0.5935654072813434</v>
       </c>
       <c r="F60" t="n">
-        <v>1.3939046043119974</v>
+        <v>-1.6272090416202833</v>
       </c>
       <c r="G60" t="n">
-        <v>0.00155892238782271</v>
+        <v>0.0021564451726462947</v>
       </c>
       <c r="H60" t="n">
-        <v>0.021662795319065647</v>
+        <v>0.029103612952229307</v>
       </c>
       <c r="I60" t="n">
-        <v>0.017432582384088135</v>
+        <v>0.024089685516523244</v>
       </c>
       <c r="J60" t="n">
-        <v>4972.0</v>
+        <v>2730.0</v>
       </c>
       <c r="K60" t="s">
-        <v>250</v>
+        <v>224</v>
       </c>
       <c r="L60" t="s">
-        <v>330</v>
+        <v>296</v>
       </c>
     </row>
     <row r="61">
@@ -3428,34 +3296,34 @@
         <v>70</v>
       </c>
       <c r="C61" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="D61" t="n">
-        <v>66.0</v>
+        <v>36.0</v>
       </c>
       <c r="E61" t="n">
-        <v>0.31565103784209625</v>
+        <v>-0.5928304463360108</v>
       </c>
       <c r="F61" t="n">
-        <v>1.5319334605974373</v>
+        <v>-1.6251942087462439</v>
       </c>
       <c r="G61" t="n">
-        <v>0.00161765831915385</v>
+        <v>0.002235578594628898</v>
       </c>
       <c r="H61" t="n">
-        <v>0.021865348280562875</v>
+        <v>0.029103612952229307</v>
       </c>
       <c r="I61" t="n">
-        <v>0.017595581717112053</v>
+        <v>0.024089685516523244</v>
       </c>
       <c r="J61" t="n">
-        <v>1693.0</v>
+        <v>4196.0</v>
       </c>
       <c r="K61" t="s">
-        <v>251</v>
+        <v>225</v>
       </c>
       <c r="L61" t="s">
-        <v>331</v>
+        <v>297</v>
       </c>
     </row>
     <row r="62">
@@ -3466,34 +3334,34 @@
         <v>71</v>
       </c>
       <c r="C62" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="D62" t="n">
-        <v>155.0</v>
+        <v>114.0</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.4581091702208755</v>
+        <v>-0.48379002869082843</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.4205380996596173</v>
+        <v>-1.479473210125709</v>
       </c>
       <c r="G62" t="n">
-        <v>0.0016676048072270626</v>
+        <v>0.0018611746233969555</v>
       </c>
       <c r="H62" t="n">
-        <v>0.02217094260100242</v>
+        <v>0.029103612952229307</v>
       </c>
       <c r="I62" t="n">
-        <v>0.01784150095739049</v>
+        <v>0.024089685516523244</v>
       </c>
       <c r="J62" t="n">
-        <v>4551.0</v>
+        <v>4778.0</v>
       </c>
       <c r="K62" t="s">
-        <v>252</v>
+        <v>226</v>
       </c>
       <c r="L62" t="s">
-        <v>332</v>
+        <v>298</v>
       </c>
     </row>
     <row r="63">
@@ -3504,34 +3372,34 @@
         <v>72</v>
       </c>
       <c r="C63" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="D63" t="n">
-        <v>114.0</v>
+        <v>155.0</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.48379002869082843</v>
+        <v>-0.4581091702208755</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.480352706810788</v>
+        <v>-1.4248347556452756</v>
       </c>
       <c r="G63" t="n">
-        <v>0.0017199370143670602</v>
+        <v>0.002277674057130989</v>
       </c>
       <c r="H63" t="n">
-        <v>0.02249788578470461</v>
+        <v>0.029103612952229307</v>
       </c>
       <c r="I63" t="n">
-        <v>0.018104600151232213</v>
+        <v>0.024089685516523244</v>
       </c>
       <c r="J63" t="n">
-        <v>4778.0</v>
+        <v>4551.0</v>
       </c>
       <c r="K63" t="s">
-        <v>253</v>
+        <v>227</v>
       </c>
       <c r="L63" t="s">
-        <v>333</v>
+        <v>299</v>
       </c>
     </row>
     <row r="64">
@@ -3542,34 +3410,34 @@
         <v>73</v>
       </c>
       <c r="C64" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="D64" t="n">
-        <v>40.0</v>
+        <v>397.0</v>
       </c>
       <c r="E64" t="n">
-        <v>-0.5943272898346454</v>
+        <v>-0.4002075357478142</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.6941545246072438</v>
+        <v>-1.2712903634379127</v>
       </c>
       <c r="G64" t="n">
-        <v>0.0018680857289360509</v>
+        <v>0.0022753986584725166</v>
       </c>
       <c r="H64" t="n">
-        <v>0.02404789724074821</v>
+        <v>0.029103612952229307</v>
       </c>
       <c r="I64" t="n">
-        <v>0.019351932363247313</v>
+        <v>0.024089685516523244</v>
       </c>
       <c r="J64" t="n">
-        <v>8.0</v>
+        <v>2862.0</v>
       </c>
       <c r="K64" t="s">
-        <v>254</v>
+        <v>228</v>
       </c>
       <c r="L64" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
     </row>
     <row r="65">
@@ -3580,34 +3448,34 @@
         <v>74</v>
       </c>
       <c r="C65" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="D65" t="n">
         <v>10.0</v>
       </c>
       <c r="E65" t="n">
-        <v>0.690632674482888</v>
+        <v>0.7104529943932223</v>
       </c>
       <c r="F65" t="n">
-        <v>1.9586804870413241</v>
+        <v>2.0905486308021253</v>
       </c>
       <c r="G65" t="n">
-        <v>0.002075451673312117</v>
+        <v>0.0024795474319307437</v>
       </c>
       <c r="H65" t="n">
-        <v>0.025895250877786567</v>
+        <v>0.0293534659221213</v>
       </c>
       <c r="I65" t="n">
-        <v>0.020838543116656075</v>
+        <v>0.024296494185946763</v>
       </c>
       <c r="J65" t="n">
-        <v>1646.0</v>
+        <v>3295.0</v>
       </c>
       <c r="K65" t="s">
-        <v>255</v>
+        <v>229</v>
       </c>
       <c r="L65" t="s">
-        <v>334</v>
+        <v>288</v>
       </c>
     </row>
     <row r="66">
@@ -3618,34 +3486,34 @@
         <v>75</v>
       </c>
       <c r="C66" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="D66" t="n">
-        <v>40.0</v>
+        <v>12.0</v>
       </c>
       <c r="E66" t="n">
-        <v>0.37920580134591214</v>
+        <v>0.6698426253962186</v>
       </c>
       <c r="F66" t="n">
-        <v>1.6685884752372684</v>
+        <v>2.0344240328103593</v>
       </c>
       <c r="G66" t="n">
-        <v>0.0020615112888164996</v>
+        <v>0.002455742471567999</v>
       </c>
       <c r="H66" t="n">
-        <v>0.025895250877786567</v>
+        <v>0.0293534659221213</v>
       </c>
       <c r="I66" t="n">
-        <v>0.020838543116656075</v>
+        <v>0.024296494185946763</v>
       </c>
       <c r="J66" t="n">
-        <v>2692.0</v>
+        <v>1895.0</v>
       </c>
       <c r="K66" t="s">
-        <v>256</v>
+        <v>230</v>
       </c>
       <c r="L66" t="s">
-        <v>335</v>
+        <v>301</v>
       </c>
     </row>
     <row r="67">
@@ -3656,34 +3524,34 @@
         <v>76</v>
       </c>
       <c r="C67" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="D67" t="n">
-        <v>26.0</v>
+        <v>25.0</v>
       </c>
       <c r="E67" t="n">
-        <v>-0.6533998654717285</v>
+        <v>0.4763508630369046</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.752279002168042</v>
+        <v>1.826447578034255</v>
       </c>
       <c r="G67" t="n">
-        <v>0.0021773391656897635</v>
+        <v>0.0024769613138384515</v>
       </c>
       <c r="H67" t="n">
-        <v>0.02675487974809694</v>
+        <v>0.0293534659221213</v>
       </c>
       <c r="I67" t="n">
-        <v>0.021530307539516003</v>
+        <v>0.024296494185946763</v>
       </c>
       <c r="J67" t="n">
-        <v>2332.0</v>
+        <v>3618.0</v>
       </c>
       <c r="K67" t="s">
-        <v>257</v>
+        <v>231</v>
       </c>
       <c r="L67" t="s">
-        <v>336</v>
+        <v>302</v>
       </c>
     </row>
     <row r="68">
@@ -3694,34 +3562,34 @@
         <v>77</v>
       </c>
       <c r="C68" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="D68" t="n">
-        <v>10.0</v>
+        <v>40.0</v>
       </c>
       <c r="E68" t="n">
-        <v>-0.7860347455834139</v>
+        <v>-0.5943272898346454</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.7260995919195523</v>
+        <v>-1.6573054091870096</v>
       </c>
       <c r="G68" t="n">
-        <v>0.0023033208170929317</v>
+        <v>0.002475519107410935</v>
       </c>
       <c r="H68" t="n">
-        <v>0.027072364966121268</v>
+        <v>0.0293534659221213</v>
       </c>
       <c r="I68" t="n">
-        <v>0.02178579567654642</v>
+        <v>0.024296494185946763</v>
       </c>
       <c r="J68" t="n">
-        <v>1696.0</v>
+        <v>8.0</v>
       </c>
       <c r="K68" t="s">
-        <v>258</v>
+        <v>232</v>
       </c>
       <c r="L68" t="s">
-        <v>337</v>
+        <v>269</v>
       </c>
     </row>
     <row r="69">
@@ -3732,34 +3600,34 @@
         <v>78</v>
       </c>
       <c r="C69" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="D69" t="n">
-        <v>95.0</v>
+        <v>39.0</v>
       </c>
       <c r="E69" t="n">
-        <v>0.2704591499058968</v>
+        <v>-0.5857729410185645</v>
       </c>
       <c r="F69" t="n">
-        <v>1.422132684404487</v>
+        <v>-1.6296073305285583</v>
       </c>
       <c r="G69" t="n">
-        <v>0.002267366903902701</v>
+        <v>0.0024026097649061068</v>
       </c>
       <c r="H69" t="n">
-        <v>0.027072364966121268</v>
+        <v>0.0293534659221213</v>
       </c>
       <c r="I69" t="n">
-        <v>0.02178579567654642</v>
+        <v>0.024296494185946763</v>
       </c>
       <c r="J69" t="n">
-        <v>2692.0</v>
+        <v>2730.0</v>
       </c>
       <c r="K69" t="s">
-        <v>259</v>
+        <v>233</v>
       </c>
       <c r="L69" t="s">
-        <v>338</v>
+        <v>296</v>
       </c>
     </row>
     <row r="70">
@@ -3770,34 +3638,34 @@
         <v>79</v>
       </c>
       <c r="C70" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="D70" t="n">
-        <v>397.0</v>
+        <v>334.0</v>
       </c>
       <c r="E70" t="n">
-        <v>-0.4002075357478142</v>
+        <v>-0.4079485493219488</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.2690788923677543</v>
+        <v>-1.292604698200582</v>
       </c>
       <c r="G70" t="n">
-        <v>0.0022753986584725166</v>
+        <v>0.0025713793302807233</v>
       </c>
       <c r="H70" t="n">
-        <v>0.027072364966121268</v>
+        <v>0.02999942551994177</v>
       </c>
       <c r="I70" t="n">
-        <v>0.02178579567654642</v>
+        <v>0.024831168818729182</v>
       </c>
       <c r="J70" t="n">
-        <v>2862.0</v>
+        <v>4643.0</v>
       </c>
       <c r="K70" t="s">
-        <v>260</v>
+        <v>234</v>
       </c>
       <c r="L70" t="s">
-        <v>339</v>
+        <v>303</v>
       </c>
     </row>
     <row r="71">
@@ -3808,34 +3676,34 @@
         <v>80</v>
       </c>
       <c r="C71" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="D71" t="n">
-        <v>23.0</v>
+        <v>261.0</v>
       </c>
       <c r="E71" t="n">
-        <v>0.5065473675393121</v>
+        <v>-0.41909303104717965</v>
       </c>
       <c r="F71" t="n">
-        <v>1.8977609015117045</v>
+        <v>-1.318641979342493</v>
       </c>
       <c r="G71" t="n">
-        <v>0.0024411145379617184</v>
+        <v>0.0027563675647738796</v>
       </c>
       <c r="H71" t="n">
-        <v>0.027883716764604983</v>
+        <v>0.03169822699489962</v>
       </c>
       <c r="I71" t="n">
-        <v>0.022438710356356792</v>
+        <v>0.026237303285742346</v>
       </c>
       <c r="J71" t="n">
-        <v>2890.0</v>
+        <v>2800.0</v>
       </c>
       <c r="K71" t="s">
-        <v>261</v>
+        <v>235</v>
       </c>
       <c r="L71" t="s">
-        <v>340</v>
+        <v>304</v>
       </c>
     </row>
     <row r="72">
@@ -3846,34 +3714,34 @@
         <v>81</v>
       </c>
       <c r="C72" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="D72" t="n">
-        <v>23.0</v>
+        <v>37.0</v>
       </c>
       <c r="E72" t="n">
-        <v>-0.6644828502093175</v>
+        <v>-0.5901683898659292</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.743567075609866</v>
+        <v>-1.6280439415631613</v>
       </c>
       <c r="G72" t="n">
-        <v>0.0024365400826076113</v>
+        <v>0.003171629833955723</v>
       </c>
       <c r="H72" t="n">
-        <v>0.027883716764604983</v>
+        <v>0.03596002839907545</v>
       </c>
       <c r="I72" t="n">
-        <v>0.022438710356356792</v>
+        <v>0.029764887841274616</v>
       </c>
       <c r="J72" t="n">
-        <v>3462.0</v>
+        <v>2730.0</v>
       </c>
       <c r="K72" t="s">
-        <v>262</v>
+        <v>236</v>
       </c>
       <c r="L72" t="s">
-        <v>341</v>
+        <v>296</v>
       </c>
     </row>
     <row r="73">
@@ -3884,34 +3752,34 @@
         <v>82</v>
       </c>
       <c r="C73" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="D73" t="n">
-        <v>23.0</v>
+        <v>10.0</v>
       </c>
       <c r="E73" t="n">
-        <v>-0.6639307446239565</v>
+        <v>-0.7860347455834139</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.742118380401867</v>
+        <v>-1.7484593632882528</v>
       </c>
       <c r="G73" t="n">
-        <v>0.0025212872029024293</v>
+        <v>0.003244138223996711</v>
       </c>
       <c r="H73" t="n">
-        <v>0.02839949891047042</v>
+        <v>0.03627126764329656</v>
       </c>
       <c r="I73" t="n">
-        <v>0.022853772891805648</v>
+        <v>0.030022507248390614</v>
       </c>
       <c r="J73" t="n">
-        <v>986.0</v>
+        <v>1696.0</v>
       </c>
       <c r="K73" t="s">
-        <v>263</v>
+        <v>237</v>
       </c>
       <c r="L73" t="s">
-        <v>342</v>
+        <v>305</v>
       </c>
     </row>
     <row r="74">
@@ -3922,34 +3790,34 @@
         <v>83</v>
       </c>
       <c r="C74" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="D74" t="n">
-        <v>334.0</v>
+        <v>46.0</v>
       </c>
       <c r="E74" t="n">
-        <v>-0.4079485493219488</v>
+        <v>0.35737351948442087</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.2905526349592376</v>
+        <v>1.630930127829732</v>
       </c>
       <c r="G74" t="n">
-        <v>0.0027563675647738796</v>
+        <v>0.003357992660936185</v>
       </c>
       <c r="H74" t="n">
-        <v>0.03062211089084406</v>
+        <v>0.03702991906922779</v>
       </c>
       <c r="I74" t="n">
-        <v>0.024642363232297123</v>
+        <v>0.03065045932765112</v>
       </c>
       <c r="J74" t="n">
-        <v>4643.0</v>
+        <v>1370.0</v>
       </c>
       <c r="K74" t="s">
-        <v>264</v>
+        <v>238</v>
       </c>
       <c r="L74" t="s">
-        <v>343</v>
+        <v>306</v>
       </c>
     </row>
     <row r="75">
@@ -3960,34 +3828,34 @@
         <v>84</v>
       </c>
       <c r="C75" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="D75" t="n">
-        <v>36.0</v>
+        <v>26.0</v>
       </c>
       <c r="E75" t="n">
-        <v>0.4221542255927798</v>
+        <v>-0.6403515474162625</v>
       </c>
       <c r="F75" t="n">
-        <v>1.812693706432947</v>
+        <v>-1.6856932340916198</v>
       </c>
       <c r="G75" t="n">
-        <v>0.003011779324557844</v>
+        <v>0.0034682427554531057</v>
       </c>
       <c r="H75" t="n">
-        <v>0.03213885568705804</v>
+        <v>0.037728857001888515</v>
       </c>
       <c r="I75" t="n">
-        <v>0.02586292494772664</v>
+        <v>0.031228985266028676</v>
       </c>
       <c r="J75" t="n">
-        <v>3721.0</v>
+        <v>1270.0</v>
       </c>
       <c r="K75" t="s">
-        <v>265</v>
+        <v>239</v>
       </c>
       <c r="L75" t="s">
-        <v>344</v>
+        <v>285</v>
       </c>
     </row>
     <row r="76">
@@ -3998,34 +3866,34 @@
         <v>85</v>
       </c>
       <c r="C76" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="D76" t="n">
-        <v>26.0</v>
+        <v>35.0</v>
       </c>
       <c r="E76" t="n">
-        <v>-0.6403515474162625</v>
+        <v>-0.5833111859282827</v>
       </c>
       <c r="F76" t="n">
-        <v>-1.7172861976842273</v>
+        <v>-1.599992874894177</v>
       </c>
       <c r="G76" t="n">
-        <v>0.002965307921273324</v>
+        <v>0.00366782534029629</v>
       </c>
       <c r="H76" t="n">
-        <v>0.03213885568705804</v>
+        <v>0.03936799198584684</v>
       </c>
       <c r="I76" t="n">
-        <v>0.02586292494772664</v>
+        <v>0.03258573249694809</v>
       </c>
       <c r="J76" t="n">
-        <v>1270.0</v>
+        <v>4196.0</v>
       </c>
       <c r="K76" t="s">
-        <v>266</v>
+        <v>240</v>
       </c>
       <c r="L76" t="s">
-        <v>329</v>
+        <v>307</v>
       </c>
     </row>
     <row r="77">
@@ -4036,34 +3904,34 @@
         <v>86</v>
       </c>
       <c r="C77" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="D77" t="n">
-        <v>59.0</v>
+        <v>10.0</v>
       </c>
       <c r="E77" t="n">
-        <v>-0.5277673241631008</v>
+        <v>0.690632674482888</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.554968424852815</v>
+        <v>2.032226204156576</v>
       </c>
       <c r="G77" t="n">
-        <v>0.002994091294720543</v>
+        <v>0.003813059647516916</v>
       </c>
       <c r="H77" t="n">
-        <v>0.03213885568705804</v>
+        <v>0.040193931670525776</v>
       </c>
       <c r="I77" t="n">
-        <v>0.02586292494772664</v>
+        <v>0.033269380513164845</v>
       </c>
       <c r="J77" t="n">
-        <v>2730.0</v>
+        <v>1646.0</v>
       </c>
       <c r="K77" t="s">
-        <v>259</v>
+        <v>241</v>
       </c>
       <c r="L77" t="s">
-        <v>345</v>
+        <v>308</v>
       </c>
     </row>
     <row r="78">
@@ -4074,34 +3942,34 @@
         <v>87</v>
       </c>
       <c r="C78" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="D78" t="n">
-        <v>261.0</v>
+        <v>66.0</v>
       </c>
       <c r="E78" t="n">
-        <v>-0.41909303104717965</v>
+        <v>0.31565103784209625</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.319977789412695</v>
+        <v>1.593646977592076</v>
       </c>
       <c r="G78" t="n">
-        <v>0.0031263445621927542</v>
+        <v>0.0038446369423981177</v>
       </c>
       <c r="H78" t="n">
-        <v>0.032928122596601606</v>
+        <v>0.040193931670525776</v>
       </c>
       <c r="I78" t="n">
-        <v>0.026498067376069825</v>
+        <v>0.033269380513164845</v>
       </c>
       <c r="J78" t="n">
-        <v>2800.0</v>
+        <v>1693.0</v>
       </c>
       <c r="K78" t="s">
-        <v>267</v>
+        <v>242</v>
       </c>
       <c r="L78" t="s">
-        <v>346</v>
+        <v>309</v>
       </c>
     </row>
     <row r="79">
@@ -4112,34 +3980,34 @@
         <v>88</v>
       </c>
       <c r="C79" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="D79" t="n">
-        <v>14.0</v>
+        <v>23.0</v>
       </c>
       <c r="E79" t="n">
-        <v>0.5783269716049575</v>
+        <v>0.5065473675393121</v>
       </c>
       <c r="F79" t="n">
-        <v>1.883936774156959</v>
+        <v>1.8904793967992641</v>
       </c>
       <c r="G79" t="n">
-        <v>0.00324512355115073</v>
+        <v>0.004308064382919468</v>
       </c>
       <c r="H79" t="n">
-        <v>0.033313863290927115</v>
+        <v>0.04334989785312715</v>
       </c>
       <c r="I79" t="n">
-        <v>0.02680848236793408</v>
+        <v>0.035881641505105574</v>
       </c>
       <c r="J79" t="n">
-        <v>6342.0</v>
+        <v>2890.0</v>
       </c>
       <c r="K79" t="s">
-        <v>268</v>
+        <v>243</v>
       </c>
       <c r="L79" t="s">
-        <v>347</v>
+        <v>310</v>
       </c>
     </row>
     <row r="80">
@@ -4150,34 +4018,34 @@
         <v>89</v>
       </c>
       <c r="C80" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="D80" t="n">
         <v>14.0</v>
       </c>
       <c r="E80" t="n">
-        <v>0.5783269716049575</v>
+        <v>-0.7036302684758139</v>
       </c>
       <c r="F80" t="n">
-        <v>1.883936774156959</v>
+        <v>-1.6842643253501186</v>
       </c>
       <c r="G80" t="n">
-        <v>0.00324512355115073</v>
+        <v>0.004278344461036513</v>
       </c>
       <c r="H80" t="n">
-        <v>0.033313863290927115</v>
+        <v>0.04334989785312715</v>
       </c>
       <c r="I80" t="n">
-        <v>0.02680848236793408</v>
+        <v>0.035881641505105574</v>
       </c>
       <c r="J80" t="n">
-        <v>6342.0</v>
+        <v>1012.0</v>
       </c>
       <c r="K80" t="s">
-        <v>268</v>
+        <v>244</v>
       </c>
       <c r="L80" t="s">
-        <v>347</v>
+        <v>311</v>
       </c>
     </row>
     <row r="81">
@@ -4188,34 +4056,34 @@
         <v>90</v>
       </c>
       <c r="C81" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="D81" t="n">
-        <v>39.0</v>
+        <v>24.0</v>
       </c>
       <c r="E81" t="n">
-        <v>-0.5857729410185645</v>
+        <v>-0.6263590865472494</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.6585969484237146</v>
+        <v>-1.634609304942551</v>
       </c>
       <c r="G81" t="n">
-        <v>0.0034011875786559456</v>
+        <v>0.004231232154484964</v>
       </c>
       <c r="H81" t="n">
-        <v>0.034312339518973514</v>
+        <v>0.04334989785312715</v>
       </c>
       <c r="I81" t="n">
-        <v>0.027611980662941897</v>
+        <v>0.035881641505105574</v>
       </c>
       <c r="J81" t="n">
-        <v>2730.0</v>
+        <v>2996.0</v>
       </c>
       <c r="K81" t="s">
-        <v>269</v>
+        <v>245</v>
       </c>
       <c r="L81" t="s">
-        <v>348</v>
+        <v>312</v>
       </c>
     </row>
     <row r="82">
@@ -4226,34 +4094,34 @@
         <v>91</v>
       </c>
       <c r="C82" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="D82" t="n">
         <v>46.0</v>
       </c>
       <c r="E82" t="n">
-        <v>0.35737351948442087</v>
+        <v>-0.5507046560423269</v>
       </c>
       <c r="F82" t="n">
-        <v>1.650258111478328</v>
+        <v>-1.5451939986088175</v>
       </c>
       <c r="G82" t="n">
-        <v>0.003427003083892546</v>
+        <v>0.004569295588230391</v>
       </c>
       <c r="H82" t="n">
-        <v>0.034312339518973514</v>
+        <v>0.04541090059907981</v>
       </c>
       <c r="I82" t="n">
-        <v>0.027611980662941897</v>
+        <v>0.03758757774333772</v>
       </c>
       <c r="J82" t="n">
-        <v>1370.0</v>
+        <v>2730.0</v>
       </c>
       <c r="K82" t="s">
-        <v>270</v>
+        <v>182</v>
       </c>
       <c r="L82" t="s">
-        <v>349</v>
+        <v>313</v>
       </c>
     </row>
     <row r="83">
@@ -4264,34 +4132,34 @@
         <v>92</v>
       </c>
       <c r="C83" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="D83" t="n">
-        <v>36.0</v>
+        <v>259.0</v>
       </c>
       <c r="E83" t="n">
-        <v>-0.5935654072813434</v>
+        <v>-0.4107384385278573</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.669954673566643</v>
+        <v>-1.292068648270018</v>
       </c>
       <c r="G83" t="n">
-        <v>0.0036674395103893013</v>
+        <v>0.004647630283326983</v>
       </c>
       <c r="H83" t="n">
-        <v>0.03499168756383204</v>
+        <v>0.04562612656192953</v>
       </c>
       <c r="I83" t="n">
-        <v>0.0281586686865804</v>
+        <v>0.0377657248953271</v>
       </c>
       <c r="J83" t="n">
-        <v>2730.0</v>
+        <v>5509.0</v>
       </c>
       <c r="K83" t="s">
-        <v>271</v>
+        <v>246</v>
       </c>
       <c r="L83" t="s">
-        <v>348</v>
+        <v>314</v>
       </c>
     </row>
     <row r="84">
@@ -4302,490 +4170,34 @@
         <v>93</v>
       </c>
       <c r="C84" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="D84" t="n">
-        <v>36.0</v>
+        <v>59.0</v>
       </c>
       <c r="E84" t="n">
-        <v>-0.5935654072813434</v>
+        <v>-0.5277673241631008</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.669954673566643</v>
+        <v>-1.5351570167030506</v>
       </c>
       <c r="G84" t="n">
-        <v>0.0036674395103893013</v>
+        <v>0.004766678190174498</v>
       </c>
       <c r="H84" t="n">
-        <v>0.03499168756383204</v>
+        <v>0.04623103545892134</v>
       </c>
       <c r="I84" t="n">
-        <v>0.0281586686865804</v>
+        <v>0.03826642098136281</v>
       </c>
       <c r="J84" t="n">
         <v>2730.0</v>
       </c>
       <c r="K84" t="s">
-        <v>271</v>
+        <v>247</v>
       </c>
       <c r="L84" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="s">
-        <v>94</v>
-      </c>
-      <c r="B85" t="s">
-        <v>94</v>
-      </c>
-      <c r="C85" t="s">
-        <v>189</v>
-      </c>
-      <c r="D85" t="n">
-        <v>36.0</v>
-      </c>
-      <c r="E85" t="n">
-        <v>-0.5935654072813434</v>
-      </c>
-      <c r="F85" t="n">
-        <v>-1.669954673566643</v>
-      </c>
-      <c r="G85" t="n">
-        <v>0.0036674395103893013</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0.03499168756383204</v>
-      </c>
-      <c r="I85" t="n">
-        <v>0.0281586686865804</v>
-      </c>
-      <c r="J85" t="n">
-        <v>2730.0</v>
-      </c>
-      <c r="K85" t="s">
-        <v>271</v>
-      </c>
-      <c r="L85" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="s">
-        <v>95</v>
-      </c>
-      <c r="B86" t="s">
-        <v>95</v>
-      </c>
-      <c r="C86" t="s">
-        <v>190</v>
-      </c>
-      <c r="D86" t="n">
-        <v>37.0</v>
-      </c>
-      <c r="E86" t="n">
-        <v>-0.5901683898659292</v>
-      </c>
-      <c r="F86" t="n">
-        <v>-1.666197266376876</v>
-      </c>
-      <c r="G86" t="n">
-        <v>0.0036000852324290563</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0.03499168756383204</v>
-      </c>
-      <c r="I86" t="n">
-        <v>0.0281586686865804</v>
-      </c>
-      <c r="J86" t="n">
-        <v>2730.0</v>
-      </c>
-      <c r="K86" t="s">
-        <v>272</v>
-      </c>
-      <c r="L86" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="s">
-        <v>96</v>
-      </c>
-      <c r="B87" t="s">
-        <v>96</v>
-      </c>
-      <c r="C87" t="s">
-        <v>191</v>
-      </c>
-      <c r="D87" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="E87" t="n">
-        <v>-0.7066428557697659</v>
-      </c>
-      <c r="F87" t="n">
-        <v>-1.7206913371656576</v>
-      </c>
-      <c r="G87" t="n">
-        <v>0.003766670137510884</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0.03511229289104973</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0.028255722749627926</v>
-      </c>
-      <c r="J87" t="n">
-        <v>256.0</v>
-      </c>
-      <c r="K87" t="s">
-        <v>273</v>
-      </c>
-      <c r="L87" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="s">
-        <v>97</v>
-      </c>
-      <c r="B88" t="s">
-        <v>97</v>
-      </c>
-      <c r="C88" t="s">
-        <v>192</v>
-      </c>
-      <c r="D88" t="n">
-        <v>36.0</v>
-      </c>
-      <c r="E88" t="n">
-        <v>-0.5928304463360108</v>
-      </c>
-      <c r="F88" t="n">
-        <v>-1.6678869124564248</v>
-      </c>
-      <c r="G88" t="n">
-        <v>0.0037476013333043886</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0.03511229289104973</v>
-      </c>
-      <c r="I88" t="n">
-        <v>0.028255722749627926</v>
-      </c>
-      <c r="J88" t="n">
-        <v>4196.0</v>
-      </c>
-      <c r="K88" t="s">
-        <v>274</v>
-      </c>
-      <c r="L88" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="s">
-        <v>98</v>
-      </c>
-      <c r="B89" t="s">
-        <v>98</v>
-      </c>
-      <c r="C89" t="s">
-        <v>193</v>
-      </c>
-      <c r="D89" t="n">
-        <v>94.0</v>
-      </c>
-      <c r="E89" t="n">
-        <v>0.2601426970961581</v>
-      </c>
-      <c r="F89" t="n">
-        <v>1.3426495724475604</v>
-      </c>
-      <c r="G89" t="n">
-        <v>0.004153852430261536</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0.038281526374342116</v>
-      </c>
-      <c r="I89" t="n">
-        <v>0.03080608261677216</v>
-      </c>
-      <c r="J89" t="n">
-        <v>2865.0</v>
-      </c>
-      <c r="K89" t="s">
-        <v>275</v>
-      </c>
-      <c r="L89" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="s">
-        <v>99</v>
-      </c>
-      <c r="B90" t="s">
-        <v>99</v>
-      </c>
-      <c r="C90" t="s">
-        <v>194</v>
-      </c>
-      <c r="D90" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="E90" t="n">
-        <v>-0.7036302684758139</v>
-      </c>
-      <c r="F90" t="n">
-        <v>-1.6799806624525273</v>
-      </c>
-      <c r="G90" t="n">
-        <v>0.004282186084795918</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0.03902081926707292</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0.031401009728840565</v>
-      </c>
-      <c r="J90" t="n">
-        <v>1012.0</v>
-      </c>
-      <c r="K90" t="s">
-        <v>276</v>
-      </c>
-      <c r="L90" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="s">
-        <v>100</v>
-      </c>
-      <c r="B91" t="s">
-        <v>100</v>
-      </c>
-      <c r="C91" t="s">
-        <v>195</v>
-      </c>
-      <c r="D91" t="n">
-        <v>77.0</v>
-      </c>
-      <c r="E91" t="n">
-        <v>-0.49759279963183783</v>
-      </c>
-      <c r="F91" t="n">
-        <v>-1.4839225561154796</v>
-      </c>
-      <c r="G91" t="n">
-        <v>0.00450556811529125</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0.040600174905568935</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0.03267195592374942</v>
-      </c>
-      <c r="J91" t="n">
-        <v>2283.0</v>
-      </c>
-      <c r="K91" t="s">
-        <v>277</v>
-      </c>
-      <c r="L91" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="s">
-        <v>101</v>
-      </c>
-      <c r="B92" t="s">
-        <v>101</v>
-      </c>
-      <c r="C92" t="s">
-        <v>196</v>
-      </c>
-      <c r="D92" t="n">
-        <v>46.0</v>
-      </c>
-      <c r="E92" t="n">
-        <v>-0.5507046560423269</v>
-      </c>
-      <c r="F92" t="n">
-        <v>-1.5909908817295888</v>
-      </c>
-      <c r="G92" t="n">
-        <v>0.004730470849293266</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0.04215837207447076</v>
-      </c>
-      <c r="I92" t="n">
-        <v>0.03392587537954685</v>
-      </c>
-      <c r="J92" t="n">
-        <v>2730.0</v>
-      </c>
-      <c r="K92" t="s">
-        <v>206</v>
-      </c>
-      <c r="L92" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="s">
-        <v>102</v>
-      </c>
-      <c r="B93" t="s">
-        <v>102</v>
-      </c>
-      <c r="C93" t="s">
-        <v>197</v>
-      </c>
-      <c r="D93" t="n">
-        <v>24.0</v>
-      </c>
-      <c r="E93" t="n">
-        <v>-0.6263590865472494</v>
-      </c>
-      <c r="F93" t="n">
-        <v>-1.6574341968806032</v>
-      </c>
-      <c r="G93" t="n">
-        <v>0.0048637545054774104</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0.042875053303719345</v>
-      </c>
-      <c r="I93" t="n">
-        <v>0.03450260633176195</v>
-      </c>
-      <c r="J93" t="n">
-        <v>2996.0</v>
-      </c>
-      <c r="K93" t="s">
-        <v>278</v>
-      </c>
-      <c r="L93" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="s">
-        <v>103</v>
-      </c>
-      <c r="B94" t="s">
-        <v>103</v>
-      </c>
-      <c r="C94" t="s">
-        <v>198</v>
-      </c>
-      <c r="D94" t="n">
-        <v>35.0</v>
-      </c>
-      <c r="E94" t="n">
-        <v>-0.5833111859282827</v>
-      </c>
-      <c r="F94" t="n">
-        <v>-1.6296692645501127</v>
-      </c>
-      <c r="G94" t="n">
-        <v>0.005403949279180883</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0.047124761993717165</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0.037922451081971106</v>
-      </c>
-      <c r="J94" t="n">
-        <v>4196.0</v>
-      </c>
-      <c r="K94" t="s">
-        <v>279</v>
-      </c>
-      <c r="L94" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="s">
-        <v>104</v>
-      </c>
-      <c r="B95" t="s">
-        <v>104</v>
-      </c>
-      <c r="C95" t="s">
-        <v>199</v>
-      </c>
-      <c r="D95" t="n">
-        <v>474.0</v>
-      </c>
-      <c r="E95" t="n">
-        <v>-0.38564920733876545</v>
-      </c>
-      <c r="F95" t="n">
-        <v>-1.2280946907007135</v>
-      </c>
-      <c r="G95" t="n">
-        <v>0.005465597069964851</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0.047155310890866955</v>
-      </c>
-      <c r="I95" t="n">
-        <v>0.0379470345283114</v>
-      </c>
-      <c r="J95" t="n">
-        <v>5534.0</v>
-      </c>
-      <c r="K95" t="s">
-        <v>280</v>
-      </c>
-      <c r="L95" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="s">
-        <v>105</v>
-      </c>
-      <c r="B96" t="s">
-        <v>105</v>
-      </c>
-      <c r="C96" t="s">
-        <v>200</v>
-      </c>
-      <c r="D96" t="n">
-        <v>44.0</v>
-      </c>
-      <c r="E96" t="n">
-        <v>0.34999634328897367</v>
-      </c>
-      <c r="F96" t="n">
-        <v>1.5883240967007806</v>
-      </c>
-      <c r="G96" t="n">
-        <v>0.005681139288347271</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0.04849898908262776</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0.03902832530498957</v>
-      </c>
-      <c r="J96" t="n">
-        <v>3180.0</v>
-      </c>
-      <c r="K96" t="s">
-        <v>281</v>
-      </c>
-      <c r="L96" t="s">
-        <v>359</v>
+        <v>315</v>
       </c>
     </row>
   </sheetData>
